--- a/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
+++ b/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Bot Fabricio\modelo planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan.oliveira\Desktop\Scripts\gerador_incorridos\modelo planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7819E55-2238-4297-9205-10A07791D7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEEED3B-1284-467F-BE07-D4AF604B575B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="17160" windowHeight="8175" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="PEP A PEP" sheetId="2" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>Instalações Provisórias</t>
   </si>
   <si>
-    <t>POCRCIIPR</t>
-  </si>
-  <si>
     <t>Sistema de Proteção</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>m023</t>
+  </si>
+  <si>
+    <t>POCRCIPR</t>
   </si>
 </sst>
 </file>
@@ -1953,12 +1953,12 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
     <cellStyle name="Vírgula 3" xfId="3" xr:uid="{0F77B90D-75AB-4E7E-BEDD-BBA6DBA0BBA0}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="31">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i/>
-        <color rgb="FFC00000"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -1966,55 +1966,6 @@
         <b val="0"/>
         <i/>
         <color rgb="FFFF5757"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFF5757"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF5757"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFF5757"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF9393"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFF5757"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -2049,6 +2000,13 @@
       <font>
         <b/>
         <i/>
+        <color rgb="FFFF5757"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -2056,7 +2014,7 @@
       <font>
         <b/>
         <i/>
-        <color rgb="FFFF5757"/>
+        <color theme="9" tint="0.59996337778862885"/>
       </font>
     </dxf>
     <dxf>
@@ -2064,13 +2022,6 @@
         <b/>
         <i/>
         <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="0.59996337778862885"/>
       </font>
     </dxf>
     <dxf>
@@ -2091,6 +2042,13 @@
       <font>
         <b/>
         <i/>
+        <color rgb="FFFF5757"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -2098,7 +2056,7 @@
       <font>
         <b/>
         <i/>
-        <color rgb="FFFF5757"/>
+        <color rgb="FFFF9393"/>
       </font>
     </dxf>
     <dxf>
@@ -2106,13 +2064,6 @@
         <b/>
         <i/>
         <color rgb="FFA9D08E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF9393"/>
       </font>
     </dxf>
     <dxf>
@@ -2141,6 +2092,20 @@
         <b/>
         <i/>
         <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFF5757"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF9393"/>
       </font>
     </dxf>
     <dxf>
@@ -2536,10 +2501,10 @@
   <dimension ref="B1:N116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="7" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="7" topLeftCell="M16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2566,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="135" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2918,10 +2883,10 @@
       <c r="B19" s="42"/>
       <c r="C19" s="193"/>
       <c r="D19" s="157" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="159" t="s">
         <v>28</v>
-      </c>
-      <c r="E19" s="159" t="s">
-        <v>29</v>
       </c>
       <c r="F19" s="45"/>
       <c r="G19" s="172"/>
@@ -2943,10 +2908,10 @@
       <c r="B20" s="42"/>
       <c r="C20" s="193"/>
       <c r="D20" s="157" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="159" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" s="159" t="s">
-        <v>31</v>
       </c>
       <c r="F20" s="45"/>
       <c r="G20" s="172"/>
@@ -2968,10 +2933,10 @@
       <c r="B21" s="42"/>
       <c r="C21" s="193"/>
       <c r="D21" s="157" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="159" t="s">
         <v>32</v>
-      </c>
-      <c r="E21" s="159" t="s">
-        <v>33</v>
       </c>
       <c r="F21" s="45"/>
       <c r="G21" s="172"/>
@@ -2993,10 +2958,10 @@
       <c r="B22" s="42"/>
       <c r="C22" s="193"/>
       <c r="D22" s="157" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="159" t="s">
         <v>34</v>
-      </c>
-      <c r="E22" s="159" t="s">
-        <v>35</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="172"/>
@@ -3018,10 +2983,10 @@
       <c r="B23" s="42"/>
       <c r="C23" s="193"/>
       <c r="D23" s="155" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="156" t="s">
         <v>36</v>
-      </c>
-      <c r="E23" s="156" t="s">
-        <v>37</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="49">
@@ -3049,10 +3014,10 @@
       <c r="B24" s="42"/>
       <c r="C24" s="193"/>
       <c r="D24" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="159" t="s">
         <v>38</v>
-      </c>
-      <c r="E24" s="159" t="s">
-        <v>39</v>
       </c>
       <c r="G24" s="172"/>
       <c r="H24" s="54">
@@ -3074,10 +3039,10 @@
       <c r="B25" s="42"/>
       <c r="C25" s="193"/>
       <c r="D25" s="157" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="159" t="s">
         <v>40</v>
-      </c>
-      <c r="E25" s="159" t="s">
-        <v>41</v>
       </c>
       <c r="G25" s="172"/>
       <c r="H25" s="54">
@@ -3099,10 +3064,10 @@
       <c r="B26" s="42"/>
       <c r="C26" s="193"/>
       <c r="D26" s="157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="159" t="s">
         <v>42</v>
-      </c>
-      <c r="E26" s="159" t="s">
-        <v>43</v>
       </c>
       <c r="G26" s="172"/>
       <c r="H26" s="54">
@@ -3124,10 +3089,10 @@
       <c r="B27" s="42"/>
       <c r="C27" s="193"/>
       <c r="D27" s="157" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="159" t="s">
         <v>44</v>
-      </c>
-      <c r="E27" s="159" t="s">
-        <v>45</v>
       </c>
       <c r="G27" s="172"/>
       <c r="H27" s="54">
@@ -3149,10 +3114,10 @@
       <c r="B28" s="42"/>
       <c r="C28" s="193"/>
       <c r="D28" s="157" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="159" t="s">
         <v>46</v>
-      </c>
-      <c r="E28" s="159" t="s">
-        <v>47</v>
       </c>
       <c r="G28" s="172"/>
       <c r="H28" s="54">
@@ -3174,10 +3139,10 @@
       <c r="B29" s="42"/>
       <c r="C29" s="193"/>
       <c r="D29" s="157" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="159" t="s">
         <v>48</v>
-      </c>
-      <c r="E29" s="159" t="s">
-        <v>49</v>
       </c>
       <c r="G29" s="172"/>
       <c r="H29" s="54">
@@ -3199,10 +3164,10 @@
       <c r="B30" s="42"/>
       <c r="C30" s="193"/>
       <c r="D30" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="159" t="s">
         <v>50</v>
-      </c>
-      <c r="E30" s="159" t="s">
-        <v>51</v>
       </c>
       <c r="G30" s="172"/>
       <c r="H30" s="54">
@@ -3224,10 +3189,10 @@
       <c r="B31" s="42"/>
       <c r="C31" s="193"/>
       <c r="D31" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="159" t="s">
         <v>52</v>
-      </c>
-      <c r="E31" s="159" t="s">
-        <v>53</v>
       </c>
       <c r="G31" s="172"/>
       <c r="H31" s="54">
@@ -3249,10 +3214,10 @@
       <c r="B32" s="42"/>
       <c r="C32" s="193"/>
       <c r="D32" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="159" t="s">
         <v>54</v>
-      </c>
-      <c r="E32" s="159" t="s">
-        <v>55</v>
       </c>
       <c r="G32" s="172"/>
       <c r="H32" s="54">
@@ -3274,10 +3239,10 @@
       <c r="B33" s="42"/>
       <c r="C33" s="193"/>
       <c r="D33" s="157" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="159" t="s">
         <v>56</v>
-      </c>
-      <c r="E33" s="159" t="s">
-        <v>57</v>
       </c>
       <c r="G33" s="172"/>
       <c r="H33" s="54">
@@ -3299,10 +3264,10 @@
       <c r="B34" s="42"/>
       <c r="C34" s="193"/>
       <c r="D34" s="157" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="159" t="s">
         <v>58</v>
-      </c>
-      <c r="E34" s="159" t="s">
-        <v>59</v>
       </c>
       <c r="G34" s="172"/>
       <c r="H34" s="54">
@@ -3324,10 +3289,10 @@
       <c r="B35" s="42"/>
       <c r="C35" s="193"/>
       <c r="D35" s="157" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="159" t="s">
         <v>60</v>
-      </c>
-      <c r="E35" s="159" t="s">
-        <v>61</v>
       </c>
       <c r="G35" s="172"/>
       <c r="H35" s="54">
@@ -3349,10 +3314,10 @@
       <c r="B36" s="42"/>
       <c r="C36" s="193"/>
       <c r="D36" s="157" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="159" t="s">
         <v>62</v>
-      </c>
-      <c r="E36" s="159" t="s">
-        <v>63</v>
       </c>
       <c r="G36" s="172"/>
       <c r="H36" s="54">
@@ -3374,10 +3339,10 @@
       <c r="B37" s="42"/>
       <c r="C37" s="193"/>
       <c r="D37" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="159" t="s">
         <v>64</v>
-      </c>
-      <c r="E37" s="159" t="s">
-        <v>65</v>
       </c>
       <c r="G37" s="172"/>
       <c r="H37" s="54">
@@ -3399,10 +3364,10 @@
       <c r="B38" s="42"/>
       <c r="C38" s="193"/>
       <c r="D38" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="159" t="s">
         <v>66</v>
-      </c>
-      <c r="E38" s="159" t="s">
-        <v>67</v>
       </c>
       <c r="G38" s="172"/>
       <c r="H38" s="54">
@@ -3424,10 +3389,10 @@
       <c r="B39" s="42"/>
       <c r="C39" s="193"/>
       <c r="D39" s="157" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="159" t="s">
         <v>68</v>
-      </c>
-      <c r="E39" s="159" t="s">
-        <v>69</v>
       </c>
       <c r="G39" s="172"/>
       <c r="H39" s="54">
@@ -3449,10 +3414,10 @@
       <c r="B40" s="42"/>
       <c r="C40" s="193"/>
       <c r="D40" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="159" t="s">
         <v>70</v>
-      </c>
-      <c r="E40" s="159" t="s">
-        <v>71</v>
       </c>
       <c r="G40" s="172"/>
       <c r="H40" s="54">
@@ -3474,10 +3439,10 @@
       <c r="B41" s="42"/>
       <c r="C41" s="193"/>
       <c r="D41" s="157" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="159" t="s">
         <v>72</v>
-      </c>
-      <c r="E41" s="159" t="s">
-        <v>73</v>
       </c>
       <c r="G41" s="172"/>
       <c r="H41" s="54">
@@ -3499,10 +3464,10 @@
       <c r="B42" s="42"/>
       <c r="C42" s="193"/>
       <c r="D42" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="159" t="s">
         <v>74</v>
-      </c>
-      <c r="E42" s="159" t="s">
-        <v>75</v>
       </c>
       <c r="G42" s="172"/>
       <c r="H42" s="54">
@@ -3524,10 +3489,10 @@
       <c r="B43" s="42"/>
       <c r="C43" s="193"/>
       <c r="D43" s="157" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="159" t="s">
         <v>76</v>
-      </c>
-      <c r="E43" s="159" t="s">
-        <v>77</v>
       </c>
       <c r="G43" s="172"/>
       <c r="H43" s="54">
@@ -3549,10 +3514,10 @@
       <c r="B44" s="42"/>
       <c r="C44" s="193"/>
       <c r="D44" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="159" t="s">
         <v>78</v>
-      </c>
-      <c r="E44" s="159" t="s">
-        <v>79</v>
       </c>
       <c r="G44" s="172"/>
       <c r="H44" s="54">
@@ -3574,10 +3539,10 @@
       <c r="B45" s="42"/>
       <c r="C45" s="193"/>
       <c r="D45" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="159" t="s">
         <v>80</v>
-      </c>
-      <c r="E45" s="159" t="s">
-        <v>81</v>
       </c>
       <c r="G45" s="172"/>
       <c r="H45" s="54">
@@ -3599,7 +3564,7 @@
       <c r="B46" s="42"/>
       <c r="C46" s="193"/>
       <c r="D46" s="157" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46" s="177"/>
       <c r="G46" s="172"/>
@@ -3622,7 +3587,7 @@
       <c r="B47" s="42"/>
       <c r="C47" s="193"/>
       <c r="D47" s="157" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47" s="177"/>
       <c r="G47" s="172"/>
@@ -3642,7 +3607,7 @@
       <c r="B48" s="42"/>
       <c r="C48" s="193"/>
       <c r="D48" s="157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="177"/>
       <c r="G48" s="172"/>
@@ -3662,7 +3627,7 @@
       <c r="B49" s="42"/>
       <c r="C49" s="193"/>
       <c r="D49" s="157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="177"/>
       <c r="G49" s="172"/>
@@ -3682,7 +3647,7 @@
       <c r="B50" s="42"/>
       <c r="C50" s="193"/>
       <c r="D50" s="157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E50" s="177"/>
       <c r="G50" s="172"/>
@@ -3702,7 +3667,7 @@
       <c r="B51" s="42"/>
       <c r="C51" s="193"/>
       <c r="D51" s="157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51" s="177"/>
       <c r="G51" s="172"/>
@@ -3722,7 +3687,7 @@
       <c r="B52" s="42"/>
       <c r="C52" s="193"/>
       <c r="D52" s="157" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="177"/>
       <c r="G52" s="172"/>
@@ -3742,7 +3707,7 @@
       <c r="B53" s="42"/>
       <c r="C53" s="193"/>
       <c r="D53" s="157" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="177"/>
       <c r="G53" s="172"/>
@@ -3762,10 +3727,10 @@
       <c r="B54" s="42"/>
       <c r="C54" s="193"/>
       <c r="D54" s="153" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="154" t="s">
         <v>90</v>
-      </c>
-      <c r="E54" s="154" t="s">
-        <v>91</v>
       </c>
       <c r="G54" s="169"/>
       <c r="H54" s="41">
@@ -3784,10 +3749,10 @@
       <c r="B55" s="42"/>
       <c r="C55" s="193"/>
       <c r="D55" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="154" t="s">
         <v>92</v>
-      </c>
-      <c r="E55" s="154" t="s">
-        <v>93</v>
       </c>
       <c r="G55" s="169"/>
       <c r="H55" s="41">
@@ -3806,10 +3771,10 @@
       <c r="B56" s="42"/>
       <c r="C56" s="193"/>
       <c r="D56" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="161" t="s">
         <v>94</v>
-      </c>
-      <c r="E56" s="161" t="s">
-        <v>95</v>
       </c>
       <c r="G56" s="150">
         <f>SUM(G57:G59)</f>
@@ -3831,10 +3796,10 @@
       <c r="B57" s="42"/>
       <c r="C57" s="193"/>
       <c r="D57" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="156" t="s">
         <v>96</v>
-      </c>
-      <c r="E57" s="156" t="s">
-        <v>97</v>
       </c>
       <c r="G57" s="170"/>
       <c r="H57" s="164">
@@ -3853,10 +3818,10 @@
       <c r="B58" s="42"/>
       <c r="C58" s="193"/>
       <c r="D58" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="156" t="s">
         <v>98</v>
-      </c>
-      <c r="E58" s="156" t="s">
-        <v>99</v>
       </c>
       <c r="G58" s="170"/>
       <c r="H58" s="164">
@@ -3875,10 +3840,10 @@
       <c r="B59" s="42"/>
       <c r="C59" s="194"/>
       <c r="D59" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="163" t="s">
         <v>100</v>
-      </c>
-      <c r="E59" s="163" t="s">
-        <v>101</v>
       </c>
       <c r="G59" s="171"/>
       <c r="H59" s="166">
@@ -3932,7 +3897,7 @@
       <c r="D63" s="196"/>
       <c r="E63" s="84"/>
       <c r="G63" s="85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H63" s="86"/>
       <c r="I63" s="87"/>
@@ -3961,7 +3926,7 @@
     <row r="66" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="94"/>
       <c r="C66" s="202" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" s="95" t="str">
         <f>D10</f>
@@ -4241,7 +4206,7 @@
       <c r="C75" s="203"/>
       <c r="D75" s="184" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCIIPR</v>
+        <v>POCRCIPR</v>
       </c>
       <c r="E75" s="185" t="str">
         <f t="shared" si="7"/>
@@ -5475,168 +5440,143 @@
     <mergeCell ref="G64:I64"/>
     <mergeCell ref="C66:C115"/>
   </mergeCells>
-  <conditionalFormatting sqref="D11:E14 G11:G14 D54:E56 G54:G59 I54:I59 I11:I14">
-    <cfRule type="expression" dxfId="35" priority="42">
+  <conditionalFormatting sqref="D11:E14 D54:E56">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>$H11&gt;$G11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E22 G16:G22 D24:E53 G24:G53 I24:I53 I16:I22">
-    <cfRule type="expression" dxfId="34" priority="41">
+  <conditionalFormatting sqref="D16:E22 D24:E53">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>$H16&gt;$G16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:E59">
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$H57&gt;$G57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:E70">
-    <cfRule type="expression" dxfId="32" priority="27">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>$H67&gt;$G67</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:E78">
-    <cfRule type="expression" dxfId="31" priority="24">
+    <cfRule type="expression" dxfId="26" priority="24">
       <formula>$H72&gt;$G72</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:E109">
-    <cfRule type="expression" dxfId="30" priority="25">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>$H80&gt;$G80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110:E112">
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$H110&gt;$G110</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:G15 D23:G23 I23 I15">
-    <cfRule type="expression" dxfId="28" priority="43">
+  <conditionalFormatting sqref="D15:I15 D23:I23">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>$H15&gt;$G15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71 F79">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="22" priority="29">
       <formula>$H71&gt;$G71</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67:G70 I67:I70">
-    <cfRule type="expression" dxfId="26" priority="20">
+  <conditionalFormatting sqref="G11:I14 G54:I59">
+    <cfRule type="expression" dxfId="21" priority="6">
+      <formula>$H11&gt;$G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:I22 G24:I53">
+    <cfRule type="expression" dxfId="20" priority="5">
+      <formula>$H16&gt;$G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:I70">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>$H67&gt;$G67</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:G78 I72:I78">
-    <cfRule type="expression" dxfId="25" priority="23">
+  <conditionalFormatting sqref="G72:I78">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>$H72&gt;$G72</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:G109 I80:I109">
-    <cfRule type="expression" dxfId="24" priority="22">
+  <conditionalFormatting sqref="G80:I109">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>$H80&gt;$G80</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110:G112 I110:I112">
-    <cfRule type="expression" dxfId="23" priority="21">
+  <conditionalFormatting sqref="G110:I112">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>$H110&gt;$G110</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="22" priority="36">
+    <cfRule type="expression" dxfId="15" priority="37">
+      <formula>$L14&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="36">
       <formula>$L14&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="37">
-      <formula>$L14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15 L23">
-    <cfRule type="expression" dxfId="20" priority="38">
+    <cfRule type="expression" dxfId="13" priority="39">
+      <formula>$L15&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="38">
       <formula>$L15&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="39">
-      <formula>$L15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L22 L24:L53">
-    <cfRule type="expression" dxfId="18" priority="40">
+    <cfRule type="expression" dxfId="11" priority="40">
       <formula>$L16&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="44">
+    <cfRule type="expression" dxfId="10" priority="44">
       <formula>$L16&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L70">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="9" priority="18">
+      <formula>$L70&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>$L70&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>$L70&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L71">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>$L71&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>$L71&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
-      <formula>$L71&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L72:L78">
-    <cfRule type="expression" dxfId="12" priority="28">
+    <cfRule type="expression" dxfId="5" priority="28">
       <formula>$L72&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="30">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>$L72&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$L79&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$L79&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80:L109">
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>$L80&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>$L80&lt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H14 H54:H59">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$H11&gt;$G11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H22 H24:H53">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$H16&gt;$G16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H23">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>$H15&gt;$G15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H70">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$H67&gt;$G67</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72:H78">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$H72&gt;$G72</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80:H109">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$H80&gt;$G80</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H110:H112">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$H110&gt;$G110</formula>
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>$L80&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6284,6 +6224,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A2E69AC71DE3654F97F1183C29BC8261" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="882d357326e1215bae8de2ab4e60b4fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8366f177-07ed-4fc9-be97-e083a2cd3bf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf3bcc82be21379e317eddbad04fc935" ns2:_="">
     <xsd:import namespace="8366f177-07ed-4fc9-be97-e083a2cd3bf9"/>
@@ -6427,22 +6382,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54025C05-9DFC-48B1-AF42-8C333127B25E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6458,21 +6415,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
+++ b/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan.oliveira\Desktop\Scripts\gerador_incorridos\modelo planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Bot Fabricio\modelo planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEEED3B-1284-467F-BE07-D4AF604B575B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB20912-06E9-4593-A069-C6231428FD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1860" windowWidth="17160" windowHeight="8175" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
+    <workbookView xWindow="11175" yWindow="600" windowWidth="23010" windowHeight="14790" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="PEP A PEP" sheetId="2" r:id="rId1"/>
@@ -34,28 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1924,15 +1902,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1941,6 +1910,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1972,14 +1950,14 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FFFF5757"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i/>
-        <color rgb="FFFF5757"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -2501,10 +2479,10 @@
   <dimension ref="B1:N116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="7" topLeftCell="M16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="7" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2540,14 +2518,7 @@
       <c r="D3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="139" t="e">
-        <f>_xlfn.XLOOKUP(G3,#REF!,#REF!,"",0,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G3" s="1" t="e" cm="1">
-        <f t="array" ref="G3">LOOKUP(2,1/((#REF!&lt;&gt;"")*(#REF!&lt;&gt;0)),#REF!)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E3" s="139"/>
     </row>
     <row r="4" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3767,7 +3738,7 @@
       <c r="L55" s="69"/>
       <c r="N55" s="48"/>
     </row>
-    <row r="56" spans="2:14" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="42"/>
       <c r="C56" s="193"/>
       <c r="D56" s="160" t="s">
@@ -3792,7 +3763,7 @@
       <c r="L56" s="69"/>
       <c r="N56" s="48"/>
     </row>
-    <row r="57" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="42"/>
       <c r="C57" s="193"/>
       <c r="D57" s="155" t="s">
@@ -3814,7 +3785,7 @@
       <c r="L57" s="69"/>
       <c r="N57" s="48"/>
     </row>
-    <row r="58" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B58" s="42"/>
       <c r="C58" s="193"/>
       <c r="D58" s="155" t="s">
@@ -3836,7 +3807,7 @@
       <c r="L58" s="69"/>
       <c r="N58" s="48"/>
     </row>
-    <row r="59" spans="2:14" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="42"/>
       <c r="C59" s="194"/>
       <c r="D59" s="162" t="s">
@@ -3910,9 +3881,9 @@
       <c r="C64" s="197"/>
       <c r="D64" s="198"/>
       <c r="E64" s="90"/>
-      <c r="G64" s="199"/>
-      <c r="H64" s="200"/>
-      <c r="I64" s="201"/>
+      <c r="G64" s="202"/>
+      <c r="H64" s="203"/>
+      <c r="I64" s="204"/>
       <c r="K64" s="141"/>
       <c r="L64" s="142"/>
       <c r="N64" s="89"/>
@@ -3925,7 +3896,7 @@
     </row>
     <row r="66" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="94"/>
-      <c r="C66" s="202" t="s">
+      <c r="C66" s="199" t="s">
         <v>102</v>
       </c>
       <c r="D66" s="95" t="str">
@@ -3957,7 +3928,7 @@
     </row>
     <row r="67" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="94"/>
-      <c r="C67" s="203"/>
+      <c r="C67" s="200"/>
       <c r="D67" s="178" t="str">
         <f t="shared" ref="D67:D115" si="6">D11</f>
         <v>POCI</v>
@@ -3987,7 +3958,7 @@
     </row>
     <row r="68" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="94"/>
-      <c r="C68" s="203"/>
+      <c r="C68" s="200"/>
       <c r="D68" s="178" t="str">
         <f t="shared" si="6"/>
         <v>POCD</v>
@@ -4017,7 +3988,7 @@
     </row>
     <row r="69" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="94"/>
-      <c r="C69" s="203"/>
+      <c r="C69" s="200"/>
       <c r="D69" s="178" t="str">
         <f t="shared" si="6"/>
         <v>POSP</v>
@@ -4047,7 +4018,7 @@
     </row>
     <row r="70" spans="2:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B70" s="83"/>
-      <c r="C70" s="203"/>
+      <c r="C70" s="200"/>
       <c r="D70" s="178" t="str">
         <f t="shared" si="6"/>
         <v>POCR</v>
@@ -4080,7 +4051,7 @@
     </row>
     <row r="71" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B71" s="83"/>
-      <c r="C71" s="203"/>
+      <c r="C71" s="200"/>
       <c r="D71" s="180" t="str">
         <f t="shared" si="6"/>
         <v>POCRCI</v>
@@ -4113,7 +4084,7 @@
     </row>
     <row r="72" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B72" s="83"/>
-      <c r="C72" s="203"/>
+      <c r="C72" s="200"/>
       <c r="D72" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCIPJ</v>
@@ -4143,7 +4114,7 @@
     </row>
     <row r="73" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B73" s="83"/>
-      <c r="C73" s="203"/>
+      <c r="C73" s="200"/>
       <c r="D73" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCISP</v>
@@ -4173,7 +4144,7 @@
     </row>
     <row r="74" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B74" s="83"/>
-      <c r="C74" s="203"/>
+      <c r="C74" s="200"/>
       <c r="D74" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCIIP</v>
@@ -4203,7 +4174,7 @@
     </row>
     <row r="75" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B75" s="83"/>
-      <c r="C75" s="203"/>
+      <c r="C75" s="200"/>
       <c r="D75" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCIPR</v>
@@ -4233,7 +4204,7 @@
     </row>
     <row r="76" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B76" s="83"/>
-      <c r="C76" s="203"/>
+      <c r="C76" s="200"/>
       <c r="D76" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCIEQ</v>
@@ -4263,7 +4234,7 @@
     </row>
     <row r="77" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B77" s="83"/>
-      <c r="C77" s="203"/>
+      <c r="C77" s="200"/>
       <c r="D77" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCIMO</v>
@@ -4293,7 +4264,7 @@
     </row>
     <row r="78" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B78" s="83"/>
-      <c r="C78" s="203"/>
+      <c r="C78" s="200"/>
       <c r="D78" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCICO</v>
@@ -4323,7 +4294,7 @@
     </row>
     <row r="79" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B79" s="83"/>
-      <c r="C79" s="203"/>
+      <c r="C79" s="200"/>
       <c r="D79" s="180" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD</v>
@@ -4356,7 +4327,7 @@
     </row>
     <row r="80" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B80" s="83"/>
-      <c r="C80" s="203"/>
+      <c r="C80" s="200"/>
       <c r="D80" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD01</v>
@@ -4386,7 +4357,7 @@
     </row>
     <row r="81" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B81" s="83"/>
-      <c r="C81" s="203"/>
+      <c r="C81" s="200"/>
       <c r="D81" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD02</v>
@@ -4416,7 +4387,7 @@
     </row>
     <row r="82" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B82" s="83"/>
-      <c r="C82" s="203"/>
+      <c r="C82" s="200"/>
       <c r="D82" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD03</v>
@@ -4446,7 +4417,7 @@
     </row>
     <row r="83" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B83" s="83"/>
-      <c r="C83" s="203"/>
+      <c r="C83" s="200"/>
       <c r="D83" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD04</v>
@@ -4476,7 +4447,7 @@
     </row>
     <row r="84" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B84" s="83"/>
-      <c r="C84" s="203"/>
+      <c r="C84" s="200"/>
       <c r="D84" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD05</v>
@@ -4506,7 +4477,7 @@
     </row>
     <row r="85" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" s="83"/>
-      <c r="C85" s="203"/>
+      <c r="C85" s="200"/>
       <c r="D85" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD06</v>
@@ -4536,7 +4507,7 @@
     </row>
     <row r="86" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="83"/>
-      <c r="C86" s="203"/>
+      <c r="C86" s="200"/>
       <c r="D86" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD07</v>
@@ -4566,7 +4537,7 @@
     </row>
     <row r="87" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" s="83"/>
-      <c r="C87" s="203"/>
+      <c r="C87" s="200"/>
       <c r="D87" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD08</v>
@@ -4596,7 +4567,7 @@
     </row>
     <row r="88" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B88" s="83"/>
-      <c r="C88" s="203"/>
+      <c r="C88" s="200"/>
       <c r="D88" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD09</v>
@@ -4626,7 +4597,7 @@
     </row>
     <row r="89" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B89" s="83"/>
-      <c r="C89" s="203"/>
+      <c r="C89" s="200"/>
       <c r="D89" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD10</v>
@@ -4656,7 +4627,7 @@
     </row>
     <row r="90" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B90" s="83"/>
-      <c r="C90" s="203"/>
+      <c r="C90" s="200"/>
       <c r="D90" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD11</v>
@@ -4686,7 +4657,7 @@
     </row>
     <row r="91" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="83"/>
-      <c r="C91" s="203"/>
+      <c r="C91" s="200"/>
       <c r="D91" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD12</v>
@@ -4716,7 +4687,7 @@
     </row>
     <row r="92" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="83"/>
-      <c r="C92" s="203"/>
+      <c r="C92" s="200"/>
       <c r="D92" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD13</v>
@@ -4746,7 +4717,7 @@
     </row>
     <row r="93" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="83"/>
-      <c r="C93" s="203"/>
+      <c r="C93" s="200"/>
       <c r="D93" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD14</v>
@@ -4776,7 +4747,7 @@
     </row>
     <row r="94" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B94" s="83"/>
-      <c r="C94" s="203"/>
+      <c r="C94" s="200"/>
       <c r="D94" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD15</v>
@@ -4806,7 +4777,7 @@
     </row>
     <row r="95" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B95" s="83"/>
-      <c r="C95" s="203"/>
+      <c r="C95" s="200"/>
       <c r="D95" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD16</v>
@@ -4836,7 +4807,7 @@
     </row>
     <row r="96" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B96" s="83"/>
-      <c r="C96" s="203"/>
+      <c r="C96" s="200"/>
       <c r="D96" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD17</v>
@@ -4866,7 +4837,7 @@
     </row>
     <row r="97" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B97" s="83"/>
-      <c r="C97" s="203"/>
+      <c r="C97" s="200"/>
       <c r="D97" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD18</v>
@@ -4896,7 +4867,7 @@
     </row>
     <row r="98" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B98" s="83"/>
-      <c r="C98" s="203"/>
+      <c r="C98" s="200"/>
       <c r="D98" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD19</v>
@@ -4926,7 +4897,7 @@
     </row>
     <row r="99" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B99" s="83"/>
-      <c r="C99" s="203"/>
+      <c r="C99" s="200"/>
       <c r="D99" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD20</v>
@@ -4956,7 +4927,7 @@
     </row>
     <row r="100" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B100" s="83"/>
-      <c r="C100" s="203"/>
+      <c r="C100" s="200"/>
       <c r="D100" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD21</v>
@@ -4986,7 +4957,7 @@
     </row>
     <row r="101" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B101" s="83"/>
-      <c r="C101" s="203"/>
+      <c r="C101" s="200"/>
       <c r="D101" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD22</v>
@@ -5016,7 +4987,7 @@
     </row>
     <row r="102" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" s="83"/>
-      <c r="C102" s="203"/>
+      <c r="C102" s="200"/>
       <c r="D102" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD23</v>
@@ -5046,7 +5017,7 @@
     </row>
     <row r="103" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B103" s="83"/>
-      <c r="C103" s="203"/>
+      <c r="C103" s="200"/>
       <c r="D103" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD24</v>
@@ -5076,7 +5047,7 @@
     </row>
     <row r="104" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B104" s="83"/>
-      <c r="C104" s="203"/>
+      <c r="C104" s="200"/>
       <c r="D104" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD25</v>
@@ -5106,7 +5077,7 @@
     </row>
     <row r="105" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B105" s="83"/>
-      <c r="C105" s="203"/>
+      <c r="C105" s="200"/>
       <c r="D105" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD26</v>
@@ -5136,7 +5107,7 @@
     </row>
     <row r="106" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B106" s="83"/>
-      <c r="C106" s="203"/>
+      <c r="C106" s="200"/>
       <c r="D106" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD27</v>
@@ -5166,7 +5137,7 @@
     </row>
     <row r="107" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B107" s="83"/>
-      <c r="C107" s="203"/>
+      <c r="C107" s="200"/>
       <c r="D107" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD28</v>
@@ -5196,7 +5167,7 @@
     </row>
     <row r="108" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B108" s="83"/>
-      <c r="C108" s="203"/>
+      <c r="C108" s="200"/>
       <c r="D108" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD29</v>
@@ -5226,7 +5197,7 @@
     </row>
     <row r="109" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B109" s="83"/>
-      <c r="C109" s="203"/>
+      <c r="C109" s="200"/>
       <c r="D109" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCD30</v>
@@ -5256,7 +5227,7 @@
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="83"/>
-      <c r="C110" s="203"/>
+      <c r="C110" s="200"/>
       <c r="D110" s="178" t="str">
         <f t="shared" si="6"/>
         <v>AD</v>
@@ -5283,7 +5254,7 @@
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="83"/>
-      <c r="C111" s="203"/>
+      <c r="C111" s="200"/>
       <c r="D111" s="178" t="str">
         <f t="shared" si="6"/>
         <v>PONI</v>
@@ -5310,7 +5281,7 @@
     </row>
     <row r="112" spans="2:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B112" s="83"/>
-      <c r="C112" s="203"/>
+      <c r="C112" s="200"/>
       <c r="D112" s="178" t="str">
         <f t="shared" si="6"/>
         <v>POPZ</v>
@@ -5337,7 +5308,7 @@
     </row>
     <row r="113" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B113" s="83"/>
-      <c r="C113" s="203"/>
+      <c r="C113" s="200"/>
       <c r="D113" s="180" t="str">
         <f t="shared" si="6"/>
         <v>POPZKT</v>
@@ -5364,7 +5335,7 @@
     </row>
     <row r="114" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B114" s="83"/>
-      <c r="C114" s="203"/>
+      <c r="C114" s="200"/>
       <c r="D114" s="180" t="str">
         <f t="shared" si="6"/>
         <v>POPZOP</v>
@@ -5391,7 +5362,7 @@
     </row>
     <row r="115" spans="2:14" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="83"/>
-      <c r="C115" s="204"/>
+      <c r="C115" s="201"/>
       <c r="D115" s="182" t="str">
         <f t="shared" si="6"/>
         <v>POPZMD</v>
@@ -5433,11 +5404,10 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C10:C59"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
-    <mergeCell ref="G64:I64"/>
     <mergeCell ref="C66:C115"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:E14 D54:E56">
@@ -5564,11 +5534,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$L79&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$L79&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
-      <formula>$L79&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80:L109">
@@ -6224,21 +6194,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A2E69AC71DE3654F97F1183C29BC8261" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="882d357326e1215bae8de2ab4e60b4fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8366f177-07ed-4fc9-be97-e083a2cd3bf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf3bcc82be21379e317eddbad04fc935" ns2:_="">
     <xsd:import namespace="8366f177-07ed-4fc9-be97-e083a2cd3bf9"/>
@@ -6382,24 +6337,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54025C05-9DFC-48B1-AF42-8C333127B25E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6415,4 +6368,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
+++ b/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Bot Fabricio\modelo planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB20912-06E9-4593-A069-C6231428FD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E64AA5-7001-4DE7-8A91-B6FEA060EA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="600" windowWidth="23010" windowHeight="14790" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
+    <workbookView xWindow="11235" yWindow="1395" windowWidth="23235" windowHeight="11760" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="PEP A PEP" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Obra:</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>POCRCIPR</t>
+  </si>
+  <si>
+    <t>POCRCITO</t>
+  </si>
+  <si>
+    <t>Término de Obra - CI</t>
   </si>
 </sst>
 </file>
@@ -1881,6 +1887,15 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1910,15 +1925,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2476,13 +2482,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:N116"/>
+  <dimension ref="B1:N117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="7" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="7" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="10" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
-      <c r="C10" s="192" t="s">
+      <c r="C10" s="195" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -2621,11 +2627,11 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="30">
-        <f>G11+G12+G13+G14+G54+G55+G56</f>
+        <f>G11+G12+G13+G14+G55+G56+G57</f>
         <v>0</v>
       </c>
       <c r="H10" s="31">
-        <f>H11+H12+H13+H14+H54+H55+H56</f>
+        <f>H11+H12+H13+H14+H55+H56+H57</f>
         <v>0</v>
       </c>
       <c r="I10" s="32">
@@ -2640,7 +2646,7 @@
     </row>
     <row r="11" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
-      <c r="C11" s="193"/>
+      <c r="C11" s="196"/>
       <c r="D11" s="153" t="s">
         <v>12</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="37">
-        <f t="shared" ref="I11:I59" si="0">IF(G11=0,0,H11/G11)</f>
+        <f t="shared" ref="I11:I60" si="0">IF(G11=0,0,H11/G11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="9"/>
@@ -2665,7 +2671,7 @@
     </row>
     <row r="12" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
-      <c r="C12" s="193"/>
+      <c r="C12" s="196"/>
       <c r="D12" s="153" t="s">
         <v>14</v>
       </c>
@@ -2690,7 +2696,7 @@
     </row>
     <row r="13" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
-      <c r="C13" s="193"/>
+      <c r="C13" s="196"/>
       <c r="D13" s="153" t="s">
         <v>16</v>
       </c>
@@ -2715,7 +2721,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
-      <c r="C14" s="193"/>
+      <c r="C14" s="196"/>
       <c r="D14" s="153" t="s">
         <v>18</v>
       </c>
@@ -2724,11 +2730,11 @@
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="40">
-        <f>G15+G23</f>
+        <f>G15+G24</f>
         <v>0</v>
       </c>
       <c r="H14" s="41">
-        <f>H15+H23</f>
+        <f>H15+H24</f>
         <v>0</v>
       </c>
       <c r="I14" s="44">
@@ -2746,7 +2752,7 @@
     </row>
     <row r="15" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
-      <c r="C15" s="193"/>
+      <c r="C15" s="196"/>
       <c r="D15" s="155" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2775,7 @@
       <c r="J15" s="45"/>
       <c r="K15" s="52"/>
       <c r="L15" s="53">
-        <f t="shared" ref="L15:L46" si="1">K15-I15</f>
+        <f t="shared" ref="L15:L47" si="1">K15-I15</f>
         <v>0</v>
       </c>
       <c r="M15" s="45"/>
@@ -2777,7 +2783,7 @@
     </row>
     <row r="16" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
-      <c r="C16" s="193"/>
+      <c r="C16" s="196"/>
       <c r="D16" s="157" t="s">
         <v>22</v>
       </c>
@@ -2802,7 +2808,7 @@
     </row>
     <row r="17" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
-      <c r="C17" s="193"/>
+      <c r="C17" s="196"/>
       <c r="D17" s="157" t="s">
         <v>24</v>
       </c>
@@ -2827,7 +2833,7 @@
     </row>
     <row r="18" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="193"/>
+      <c r="C18" s="196"/>
       <c r="D18" s="157" t="s">
         <v>26</v>
       </c>
@@ -2852,7 +2858,7 @@
     </row>
     <row r="19" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" s="42"/>
-      <c r="C19" s="193"/>
+      <c r="C19" s="196"/>
       <c r="D19" s="157" t="s">
         <v>104</v>
       </c>
@@ -2877,7 +2883,7 @@
     </row>
     <row r="20" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
-      <c r="C20" s="193"/>
+      <c r="C20" s="196"/>
       <c r="D20" s="157" t="s">
         <v>29</v>
       </c>
@@ -2902,7 +2908,7 @@
     </row>
     <row r="21" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
-      <c r="C21" s="193"/>
+      <c r="C21" s="196"/>
       <c r="D21" s="157" t="s">
         <v>31</v>
       </c>
@@ -2927,7 +2933,7 @@
     </row>
     <row r="22" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B22" s="42"/>
-      <c r="C22" s="193"/>
+      <c r="C22" s="196"/>
       <c r="D22" s="157" t="s">
         <v>33</v>
       </c>
@@ -2950,74 +2956,74 @@
       <c r="M22" s="45"/>
       <c r="N22" s="48"/>
     </row>
-    <row r="23" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="155" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="156" t="s">
-        <v>36</v>
+      <c r="C23" s="196"/>
+      <c r="D23" s="157" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="159" t="s">
+        <v>106</v>
       </c>
       <c r="F23" s="45"/>
-      <c r="G23" s="49">
-        <f>SUM(G24:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="50">
-        <f>SUM(H24:H53)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="51">
-        <f t="shared" si="0"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="54">
+        <f>SUM(N23:XFD23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="55">
+        <f t="shared" ref="I23" si="3">IF(G23=0,0,H23/G23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="45"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="45"/>
       <c r="N23" s="48"/>
     </row>
-    <row r="24" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="42"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="159" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="172"/>
-      <c r="H24" s="54">
-        <f>SUM(N24:XFD24)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="55">
-        <f>IF(G24=0,0,H24/G24)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64">
+      <c r="C24" s="196"/>
+      <c r="D24" s="155" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="156" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="49">
+        <f>SUM(G25:G54)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="50">
+        <f>SUM(H25:H54)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="45"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M24" s="45"/>
       <c r="N24" s="48"/>
     </row>
     <row r="25" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B25" s="42"/>
-      <c r="C25" s="193"/>
+      <c r="C25" s="196"/>
       <c r="D25" s="157" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="159" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25" s="172"/>
       <c r="H25" s="54">
-        <f t="shared" ref="H25:H52" si="3">SUM(N25:XFD25)</f>
+        <f>SUM(N25:XFD25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="55">
@@ -3033,20 +3039,20 @@
     </row>
     <row r="26" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="42"/>
-      <c r="C26" s="193"/>
+      <c r="C26" s="196"/>
       <c r="D26" s="157" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="159" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" s="172"/>
       <c r="H26" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H26:H53" si="4">SUM(N26:XFD26)</f>
         <v>0</v>
       </c>
       <c r="I26" s="55">
-        <f t="shared" si="0"/>
+        <f>IF(G26=0,0,H26/G26)</f>
         <v>0</v>
       </c>
       <c r="K26" s="63"/>
@@ -3058,16 +3064,16 @@
     </row>
     <row r="27" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B27" s="42"/>
-      <c r="C27" s="193"/>
+      <c r="C27" s="196"/>
       <c r="D27" s="157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E27" s="159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G27" s="172"/>
       <c r="H27" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I27" s="55">
@@ -3083,16 +3089,16 @@
     </row>
     <row r="28" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B28" s="42"/>
-      <c r="C28" s="193"/>
+      <c r="C28" s="196"/>
       <c r="D28" s="157" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="159" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G28" s="172"/>
       <c r="H28" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I28" s="55">
@@ -3108,16 +3114,16 @@
     </row>
     <row r="29" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="42"/>
-      <c r="C29" s="193"/>
+      <c r="C29" s="196"/>
       <c r="D29" s="157" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29" s="159" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G29" s="172"/>
       <c r="H29" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I29" s="55">
@@ -3133,16 +3139,16 @@
     </row>
     <row r="30" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B30" s="42"/>
-      <c r="C30" s="193"/>
+      <c r="C30" s="196"/>
       <c r="D30" s="157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" s="159" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G30" s="172"/>
       <c r="H30" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I30" s="55">
@@ -3158,16 +3164,16 @@
     </row>
     <row r="31" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B31" s="42"/>
-      <c r="C31" s="193"/>
+      <c r="C31" s="196"/>
       <c r="D31" s="157" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="159" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G31" s="172"/>
       <c r="H31" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31" s="55">
@@ -3183,16 +3189,16 @@
     </row>
     <row r="32" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B32" s="42"/>
-      <c r="C32" s="193"/>
+      <c r="C32" s="196"/>
       <c r="D32" s="157" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="159" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G32" s="172"/>
       <c r="H32" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I32" s="55">
@@ -3208,16 +3214,16 @@
     </row>
     <row r="33" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B33" s="42"/>
-      <c r="C33" s="193"/>
+      <c r="C33" s="196"/>
       <c r="D33" s="157" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E33" s="159" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="172"/>
       <c r="H33" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I33" s="55">
@@ -3233,16 +3239,16 @@
     </row>
     <row r="34" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B34" s="42"/>
-      <c r="C34" s="193"/>
+      <c r="C34" s="196"/>
       <c r="D34" s="157" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E34" s="159" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G34" s="172"/>
       <c r="H34" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I34" s="55">
@@ -3258,16 +3264,16 @@
     </row>
     <row r="35" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B35" s="42"/>
-      <c r="C35" s="193"/>
+      <c r="C35" s="196"/>
       <c r="D35" s="157" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" s="159" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G35" s="172"/>
       <c r="H35" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I35" s="55">
@@ -3283,16 +3289,16 @@
     </row>
     <row r="36" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B36" s="42"/>
-      <c r="C36" s="193"/>
+      <c r="C36" s="196"/>
       <c r="D36" s="157" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E36" s="159" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G36" s="172"/>
       <c r="H36" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I36" s="55">
@@ -3308,16 +3314,16 @@
     </row>
     <row r="37" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B37" s="42"/>
-      <c r="C37" s="193"/>
+      <c r="C37" s="196"/>
       <c r="D37" s="157" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37" s="159" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G37" s="172"/>
       <c r="H37" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I37" s="55">
@@ -3333,16 +3339,16 @@
     </row>
     <row r="38" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B38" s="42"/>
-      <c r="C38" s="193"/>
+      <c r="C38" s="196"/>
       <c r="D38" s="157" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E38" s="159" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G38" s="172"/>
       <c r="H38" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I38" s="55">
@@ -3358,16 +3364,16 @@
     </row>
     <row r="39" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B39" s="42"/>
-      <c r="C39" s="193"/>
+      <c r="C39" s="196"/>
       <c r="D39" s="157" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39" s="159" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G39" s="172"/>
       <c r="H39" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I39" s="55">
@@ -3383,16 +3389,16 @@
     </row>
     <row r="40" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="42"/>
-      <c r="C40" s="193"/>
+      <c r="C40" s="196"/>
       <c r="D40" s="157" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40" s="159" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G40" s="172"/>
       <c r="H40" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I40" s="55">
@@ -3408,16 +3414,16 @@
     </row>
     <row r="41" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="42"/>
-      <c r="C41" s="193"/>
+      <c r="C41" s="196"/>
       <c r="D41" s="157" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E41" s="159" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G41" s="172"/>
       <c r="H41" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I41" s="55">
@@ -3433,16 +3439,16 @@
     </row>
     <row r="42" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="42"/>
-      <c r="C42" s="193"/>
+      <c r="C42" s="196"/>
       <c r="D42" s="157" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E42" s="159" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G42" s="172"/>
       <c r="H42" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I42" s="55">
@@ -3458,16 +3464,16 @@
     </row>
     <row r="43" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="42"/>
-      <c r="C43" s="193"/>
+      <c r="C43" s="196"/>
       <c r="D43" s="157" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E43" s="159" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G43" s="172"/>
       <c r="H43" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I43" s="55">
@@ -3483,16 +3489,16 @@
     </row>
     <row r="44" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="42"/>
-      <c r="C44" s="193"/>
+      <c r="C44" s="196"/>
       <c r="D44" s="157" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E44" s="159" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G44" s="172"/>
       <c r="H44" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I44" s="55">
@@ -3508,16 +3514,16 @@
     </row>
     <row r="45" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="42"/>
-      <c r="C45" s="193"/>
+      <c r="C45" s="196"/>
       <c r="D45" s="157" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E45" s="159" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G45" s="172"/>
       <c r="H45" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I45" s="55">
@@ -3533,14 +3539,16 @@
     </row>
     <row r="46" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B46" s="42"/>
-      <c r="C46" s="193"/>
+      <c r="C46" s="196"/>
       <c r="D46" s="157" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="177"/>
+        <v>79</v>
+      </c>
+      <c r="E46" s="159" t="s">
+        <v>80</v>
+      </c>
       <c r="G46" s="172"/>
       <c r="H46" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I46" s="55">
@@ -3556,14 +3564,14 @@
     </row>
     <row r="47" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
-      <c r="C47" s="193"/>
+      <c r="C47" s="196"/>
       <c r="D47" s="157" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="177"/>
       <c r="G47" s="172"/>
       <c r="H47" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I47" s="55">
@@ -3571,19 +3579,22 @@
         <v>0</v>
       </c>
       <c r="K47" s="63"/>
-      <c r="L47" s="64"/>
+      <c r="L47" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N47" s="48"/>
     </row>
     <row r="48" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="42"/>
-      <c r="C48" s="193"/>
+      <c r="C48" s="196"/>
       <c r="D48" s="157" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" s="177"/>
       <c r="G48" s="172"/>
       <c r="H48" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I48" s="55">
@@ -3596,14 +3607,14 @@
     </row>
     <row r="49" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B49" s="42"/>
-      <c r="C49" s="193"/>
+      <c r="C49" s="196"/>
       <c r="D49" s="157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49" s="177"/>
       <c r="G49" s="172"/>
       <c r="H49" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I49" s="55">
@@ -3616,14 +3627,14 @@
     </row>
     <row r="50" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B50" s="42"/>
-      <c r="C50" s="193"/>
+      <c r="C50" s="196"/>
       <c r="D50" s="157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="177"/>
       <c r="G50" s="172"/>
       <c r="H50" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I50" s="55">
@@ -3636,14 +3647,14 @@
     </row>
     <row r="51" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B51" s="42"/>
-      <c r="C51" s="193"/>
+      <c r="C51" s="196"/>
       <c r="D51" s="157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" s="177"/>
       <c r="G51" s="172"/>
       <c r="H51" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I51" s="55">
@@ -3656,14 +3667,14 @@
     </row>
     <row r="52" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B52" s="42"/>
-      <c r="C52" s="193"/>
+      <c r="C52" s="196"/>
       <c r="D52" s="157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="177"/>
       <c r="G52" s="172"/>
       <c r="H52" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I52" s="55">
@@ -3676,14 +3687,14 @@
     </row>
     <row r="53" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="42"/>
-      <c r="C53" s="193"/>
+      <c r="C53" s="196"/>
       <c r="D53" s="157" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" s="177"/>
       <c r="G53" s="172"/>
       <c r="H53" s="54">
-        <f>SUM(N53:XFD53)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I53" s="55">
@@ -3694,36 +3705,34 @@
       <c r="L53" s="64"/>
       <c r="N53" s="48"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="42"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="153" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" s="154" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="169"/>
-      <c r="H54" s="41">
+      <c r="C54" s="196"/>
+      <c r="D54" s="157" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="177"/>
+      <c r="G54" s="172"/>
+      <c r="H54" s="54">
         <f>SUM(N54:XFD54)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="44">
+      <c r="I54" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K54" s="65"/>
-      <c r="L54" s="66"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="64"/>
       <c r="N54" s="48"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="42"/>
-      <c r="C55" s="193"/>
+      <c r="C55" s="196"/>
       <c r="D55" s="153" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E55" s="154" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G55" s="169"/>
       <c r="H55" s="41">
@@ -3734,28 +3743,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K55" s="68"/>
-      <c r="L55" s="69"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="66"/>
       <c r="N55" s="48"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="42"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="160" t="s">
-        <v>93</v>
-      </c>
-      <c r="E56" s="161" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" s="150">
-        <f>SUM(G57:G59)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="151">
-        <f>SUM(H57:H59)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="152">
+      <c r="C56" s="196"/>
+      <c r="D56" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="169"/>
+      <c r="H56" s="41">
+        <f>SUM(N56:XFD56)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3763,21 +3769,24 @@
       <c r="L56" s="69"/>
       <c r="N56" s="48"/>
     </row>
-    <row r="57" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="42"/>
-      <c r="C57" s="193"/>
-      <c r="D57" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="156" t="s">
-        <v>96</v>
-      </c>
-      <c r="G57" s="170"/>
-      <c r="H57" s="164">
-        <f t="shared" ref="H57:H59" si="4">SUM(N57:BK57)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="165">
+      <c r="C57" s="196"/>
+      <c r="D57" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="161" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="150">
+        <f>SUM(G58:G60)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="151">
+        <f>SUM(H58:H60)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="152">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3787,16 +3796,16 @@
     </row>
     <row r="58" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B58" s="42"/>
-      <c r="C58" s="193"/>
+      <c r="C58" s="196"/>
       <c r="D58" s="155" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E58" s="156" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G58" s="170"/>
       <c r="H58" s="164">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H58:H60" si="5">SUM(N58:BK58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="165">
@@ -3807,177 +3816,169 @@
       <c r="L58" s="69"/>
       <c r="N58" s="48"/>
     </row>
-    <row r="59" spans="2:14" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B59" s="42"/>
-      <c r="C59" s="194"/>
-      <c r="D59" s="162" t="s">
+      <c r="C59" s="196"/>
+      <c r="D59" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" s="170"/>
+      <c r="H59" s="164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="165">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="68"/>
+      <c r="L59" s="69"/>
+      <c r="N59" s="48"/>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="42"/>
+      <c r="C60" s="197"/>
+      <c r="D60" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="163" t="s">
+      <c r="E60" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="G59" s="171"/>
-      <c r="H59" s="166">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="167">
+      <c r="G60" s="171"/>
+      <c r="H60" s="166">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="167">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K59" s="70"/>
-      <c r="L59" s="71"/>
-      <c r="N59" s="48"/>
-    </row>
-    <row r="60" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="72"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="76"/>
-    </row>
-    <row r="61" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G61" s="77"/>
-    </row>
-    <row r="62" spans="2:14" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="78"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="82"/>
-    </row>
-    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="83"/>
-      <c r="C63" s="195"/>
-      <c r="D63" s="196"/>
-      <c r="E63" s="84"/>
-      <c r="G63" s="85" t="s">
+      <c r="K60" s="70"/>
+      <c r="L60" s="71"/>
+      <c r="N60" s="48"/>
+    </row>
+    <row r="61" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="72"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="76"/>
+    </row>
+    <row r="62" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="77"/>
+    </row>
+    <row r="63" spans="2:14" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="78"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="82"/>
+    </row>
+    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="83"/>
+      <c r="C64" s="198"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="84"/>
+      <c r="G64" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="H63" s="86"/>
-      <c r="I63" s="87"/>
-      <c r="K63" s="143"/>
-      <c r="L63" s="144"/>
-      <c r="N63" s="89"/>
-    </row>
-    <row r="64" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="83"/>
-      <c r="C64" s="197"/>
-      <c r="D64" s="198"/>
-      <c r="E64" s="90"/>
-      <c r="G64" s="202"/>
-      <c r="H64" s="203"/>
-      <c r="I64" s="204"/>
-      <c r="K64" s="141"/>
-      <c r="L64" s="142"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="87"/>
+      <c r="K64" s="143"/>
+      <c r="L64" s="144"/>
       <c r="N64" s="89"/>
     </row>
-    <row r="65" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="83"/>
-      <c r="K65" s="92"/>
-      <c r="L65" s="93"/>
+      <c r="C65" s="200"/>
+      <c r="D65" s="201"/>
+      <c r="E65" s="90"/>
+      <c r="G65" s="192"/>
+      <c r="H65" s="193"/>
+      <c r="I65" s="194"/>
+      <c r="K65" s="141"/>
+      <c r="L65" s="142"/>
       <c r="N65" s="89"/>
     </row>
-    <row r="66" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="94"/>
-      <c r="C66" s="199" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="95" t="str">
-        <f>D10</f>
-        <v>PO</v>
-      </c>
-      <c r="E66" s="96" t="str">
-        <f>IF(E10="","",E10)</f>
-        <v>Obra</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="97" t="e">
-        <f>G67+G68+G69+G70+G110+G111+G112</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="98">
-        <f>H67+H68+H69+H70+H110+H111+H112</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="99" t="e">
-        <f t="shared" ref="I66:I78" si="5">IF(G66=0,0,H66/G66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="190"/>
-      <c r="L66" s="191"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="102"/>
+    <row r="66" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="83"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="93"/>
+      <c r="N66" s="89"/>
     </row>
     <row r="67" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="94"/>
-      <c r="C67" s="200"/>
-      <c r="D67" s="178" t="str">
-        <f t="shared" ref="D67:D115" si="6">D11</f>
-        <v>POCI</v>
-      </c>
-      <c r="E67" s="179" t="str">
-        <f t="shared" ref="E67:E115" si="7">IF(E11="","",E11)</f>
-        <v>Incorporação</v>
+      <c r="C67" s="202" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="95" t="str">
+        <f t="shared" ref="D67:D79" si="6">D10</f>
+        <v>PO</v>
+      </c>
+      <c r="E67" s="96" t="str">
+        <f t="shared" ref="E67:E79" si="7">IF(E10="","",E10)</f>
+        <v>Obra</v>
       </c>
       <c r="F67" s="9"/>
-      <c r="G67" s="103" t="e">
-        <f>G12/$G$64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H67" s="104">
-        <f>SUM(N67:BK67)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="105" t="e">
-        <f t="shared" si="5"/>
+      <c r="G67" s="97" t="e">
+        <f>G68+G69+G70+G71+G111+G112+G113</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H67" s="98">
+        <f>H68+H69+H70+H71+H111+H112+H113</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="99" t="e">
+        <f t="shared" ref="I67:I79" si="8">IF(G67=0,0,H67/G67)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J67" s="9"/>
-      <c r="K67" s="100"/>
-      <c r="L67" s="101"/>
+      <c r="K67" s="190"/>
+      <c r="L67" s="191"/>
       <c r="M67" s="9"/>
       <c r="N67" s="102"/>
     </row>
     <row r="68" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="94"/>
-      <c r="C68" s="200"/>
+      <c r="C68" s="203"/>
       <c r="D68" s="178" t="str">
         <f t="shared" si="6"/>
-        <v>POCD</v>
+        <v>POCI</v>
       </c>
       <c r="E68" s="179" t="str">
         <f t="shared" si="7"/>
-        <v>Condicionantes / Licenciamentos</v>
+        <v>Incorporação</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="103" t="e">
-        <f>G13/$G$64</f>
+        <f>G12/$G$65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H68" s="104">
-        <f t="shared" ref="H68:H69" si="8">SUM(N68:BK68)</f>
+        <f>SUM(N68:BK68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="105" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J68" s="9"/>
@@ -3988,26 +3989,26 @@
     </row>
     <row r="69" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="94"/>
-      <c r="C69" s="200"/>
+      <c r="C69" s="203"/>
       <c r="D69" s="178" t="str">
         <f t="shared" si="6"/>
-        <v>POSP</v>
+        <v>POCD</v>
       </c>
       <c r="E69" s="179" t="str">
         <f t="shared" si="7"/>
-        <v>Custos Administrativos Preliminares</v>
+        <v>Condicionantes / Licenciamentos</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="103" t="e">
-        <f>G14/$G$64</f>
+        <f>G13/$G$65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H69" s="104">
+        <f t="shared" ref="H69:H70" si="9">SUM(N69:BK69)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="105" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="105" t="e">
-        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J69" s="9"/>
@@ -4016,124 +4017,124 @@
       <c r="M69" s="9"/>
       <c r="N69" s="102"/>
     </row>
-    <row r="70" spans="2:14" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="83"/>
-      <c r="C70" s="200"/>
+    <row r="70" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="94"/>
+      <c r="C70" s="203"/>
       <c r="D70" s="178" t="str">
         <f t="shared" si="6"/>
-        <v>POCR</v>
+        <v>POSP</v>
       </c>
       <c r="E70" s="179" t="str">
         <f t="shared" si="7"/>
+        <v>Custos Administrativos Preliminares</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="103" t="e">
+        <f>G14/$G$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70" s="104">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="105" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J70" s="9"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="101"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="102"/>
+    </row>
+    <row r="71" spans="2:14" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="83"/>
+      <c r="C71" s="203"/>
+      <c r="D71" s="178" t="str">
+        <f t="shared" si="6"/>
+        <v>POCR</v>
+      </c>
+      <c r="E71" s="179" t="str">
+        <f t="shared" si="7"/>
         <v>Custo Raso de Obra</v>
       </c>
-      <c r="F70" s="43"/>
-      <c r="G70" s="103" t="e">
-        <f>G71+G79</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" s="104">
-        <f>H71+H79</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="105" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J70" s="45"/>
-      <c r="K70" s="145"/>
-      <c r="L70" s="149" t="e">
-        <f>K70-I70</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M70" s="45"/>
-      <c r="N70" s="89"/>
-    </row>
-    <row r="71" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="83"/>
-      <c r="C71" s="200"/>
-      <c r="D71" s="180" t="str">
+      <c r="F71" s="43"/>
+      <c r="G71" s="103" t="e">
+        <f>G72+G80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H71" s="104">
+        <f>H72+H80</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="105" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J71" s="45"/>
+      <c r="K71" s="145"/>
+      <c r="L71" s="149" t="e">
+        <f>K71-I71</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M71" s="45"/>
+      <c r="N71" s="89"/>
+    </row>
+    <row r="72" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="83"/>
+      <c r="C72" s="203"/>
+      <c r="D72" s="180" t="str">
         <f t="shared" si="6"/>
         <v>POCRCI</v>
       </c>
-      <c r="E71" s="181" t="str">
+      <c r="E72" s="181" t="str">
         <f t="shared" si="7"/>
         <v>Custo Indireto</v>
       </c>
-      <c r="F71" s="45"/>
-      <c r="G71" s="109" t="e">
-        <f>SUM(G72:G78)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="110">
-        <f>SUM(H72:H78)</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="111" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J71" s="45"/>
-      <c r="K71" s="146"/>
-      <c r="L71" s="111" t="e">
-        <f t="shared" ref="L71" si="9">K71-I71</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M71" s="45"/>
-      <c r="N71" s="89"/>
-    </row>
-    <row r="72" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B72" s="83"/>
-      <c r="C72" s="200"/>
-      <c r="D72" s="184" t="str">
+      <c r="F72" s="45"/>
+      <c r="G72" s="109" t="e">
+        <f>SUM(G73:G79)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72" s="110">
+        <f>SUM(H73:H79)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="111" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J72" s="45"/>
+      <c r="K72" s="146"/>
+      <c r="L72" s="111" t="e">
+        <f t="shared" ref="L72" si="10">K72-I72</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M72" s="45"/>
+      <c r="N72" s="89"/>
+    </row>
+    <row r="73" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B73" s="83"/>
+      <c r="C73" s="203"/>
+      <c r="D73" s="184" t="str">
         <f t="shared" si="6"/>
         <v>POCRCIPJ</v>
       </c>
-      <c r="E72" s="185" t="str">
+      <c r="E73" s="185" t="str">
         <f t="shared" si="7"/>
         <v>Projetos</v>
       </c>
-      <c r="F72" s="45"/>
-      <c r="G72" s="112" t="e">
-        <f t="shared" ref="G72:G78" si="10">G17/$G$64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" s="113">
-        <f>SUM(N72:BK72)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="114" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J72" s="45"/>
-      <c r="K72" s="115"/>
-      <c r="L72" s="116"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="89"/>
-    </row>
-    <row r="73" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B73" s="83"/>
-      <c r="C73" s="200"/>
-      <c r="D73" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCISP</v>
-      </c>
-      <c r="E73" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Serviços Preliminares Obra</v>
-      </c>
       <c r="F73" s="45"/>
       <c r="G73" s="112" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G73:G78" si="11">G17/$G$65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H73" s="113">
-        <f t="shared" ref="H73:H78" si="11">SUM(N73:BK73)</f>
+        <f>SUM(N73:BK73)</f>
         <v>0</v>
       </c>
       <c r="I73" s="114" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J73" s="45"/>
@@ -4144,26 +4145,26 @@
     </row>
     <row r="74" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B74" s="83"/>
-      <c r="C74" s="200"/>
+      <c r="C74" s="203"/>
       <c r="D74" s="184" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCIIP</v>
+        <v>POCRCISP</v>
       </c>
       <c r="E74" s="185" t="str">
         <f t="shared" si="7"/>
-        <v>Instalações Provisórias</v>
+        <v>Serviços Preliminares Obra</v>
       </c>
       <c r="F74" s="45"/>
       <c r="G74" s="112" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H74" s="113">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H74:H79" si="12">SUM(N74:BK74)</f>
         <v>0</v>
       </c>
       <c r="I74" s="114" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J74" s="45"/>
@@ -4174,26 +4175,26 @@
     </row>
     <row r="75" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B75" s="83"/>
-      <c r="C75" s="200"/>
+      <c r="C75" s="203"/>
       <c r="D75" s="184" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCIPR</v>
+        <v>POCRCIIP</v>
       </c>
       <c r="E75" s="185" t="str">
         <f t="shared" si="7"/>
-        <v>Sistema de Proteção</v>
+        <v>Instalações Provisórias</v>
       </c>
       <c r="F75" s="45"/>
       <c r="G75" s="112" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H75" s="113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I75" s="114" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J75" s="45"/>
@@ -4204,26 +4205,26 @@
     </row>
     <row r="76" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B76" s="83"/>
-      <c r="C76" s="200"/>
+      <c r="C76" s="203"/>
       <c r="D76" s="184" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCIEQ</v>
+        <v>POCRCIPR</v>
       </c>
       <c r="E76" s="185" t="str">
         <f t="shared" si="7"/>
-        <v>Equipamentos</v>
+        <v>Sistema de Proteção</v>
       </c>
       <c r="F76" s="45"/>
       <c r="G76" s="112" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H76" s="113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I76" s="114" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J76" s="45"/>
@@ -4234,26 +4235,26 @@
     </row>
     <row r="77" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B77" s="83"/>
-      <c r="C77" s="200"/>
+      <c r="C77" s="203"/>
       <c r="D77" s="184" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCIMO</v>
+        <v>POCRCIEQ</v>
       </c>
       <c r="E77" s="185" t="str">
         <f t="shared" si="7"/>
-        <v>Mão de Obra</v>
+        <v>Equipamentos</v>
       </c>
       <c r="F77" s="45"/>
       <c r="G77" s="112" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H77" s="113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I77" s="114" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J77" s="45"/>
@@ -4264,26 +4265,26 @@
     </row>
     <row r="78" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B78" s="83"/>
-      <c r="C78" s="200"/>
+      <c r="C78" s="203"/>
       <c r="D78" s="184" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCICO</v>
+        <v>POCRCIMO</v>
       </c>
       <c r="E78" s="185" t="str">
         <f t="shared" si="7"/>
-        <v>Consumos</v>
+        <v>Mão de Obra</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="112" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H78" s="113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I78" s="114" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J78" s="45"/>
@@ -4292,86 +4293,86 @@
       <c r="M78" s="45"/>
       <c r="N78" s="89"/>
     </row>
-    <row r="79" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B79" s="83"/>
-      <c r="C79" s="200"/>
-      <c r="D79" s="180" t="str">
+      <c r="C79" s="203"/>
+      <c r="D79" s="184" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCD</v>
-      </c>
-      <c r="E79" s="181" t="str">
+        <v>POCRCICO</v>
+      </c>
+      <c r="E79" s="185" t="str">
         <f t="shared" si="7"/>
-        <v>Custo Direto</v>
+        <v>Consumos</v>
       </c>
       <c r="F79" s="45"/>
-      <c r="G79" s="109" t="e">
-        <f>SUM(G80:G109)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H79" s="110">
-        <f>SUM(H80:H109)</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="111" t="e">
-        <f t="shared" ref="I79" si="12">IF(G79=0,0,H79/G79)</f>
+      <c r="G79" s="112" t="e">
+        <f>G24/$G$65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" s="113">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="114" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J79" s="45"/>
-      <c r="K79" s="189"/>
-      <c r="L79" s="111" t="e">
-        <f t="shared" ref="L79:L101" si="13">K79-I79</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K79" s="115"/>
+      <c r="L79" s="116"/>
       <c r="M79" s="45"/>
       <c r="N79" s="89"/>
     </row>
-    <row r="80" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B80" s="83"/>
-      <c r="C80" s="200"/>
-      <c r="D80" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD01</v>
-      </c>
-      <c r="E80" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Movimento de Terra / Terraplenagem</v>
-      </c>
-      <c r="G80" s="112" t="e">
-        <f t="shared" ref="G80:G111" si="14">G25/$G$64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H80" s="113">
-        <f t="shared" ref="H80:H111" si="15">SUM(N80:BK80)</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="114" t="e">
-        <f>IF(G80=0,0,H80/G80)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K80" s="147"/>
-      <c r="L80" s="148" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C80" s="203"/>
+      <c r="D80" s="180" t="str">
+        <f t="shared" ref="D80:D116" si="13">D24</f>
+        <v>POCRCD</v>
+      </c>
+      <c r="E80" s="181" t="str">
+        <f t="shared" ref="E80:E116" si="14">IF(E24="","",E24)</f>
+        <v>Custo Direto</v>
+      </c>
+      <c r="F80" s="45"/>
+      <c r="G80" s="109" t="e">
+        <f>SUM(G81:G110)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80" s="110">
+        <f>SUM(H81:H110)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="111" t="e">
+        <f t="shared" ref="I80" si="15">IF(G80=0,0,H80/G80)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J80" s="45"/>
+      <c r="K80" s="189"/>
+      <c r="L80" s="111" t="e">
+        <f t="shared" ref="L80:L102" si="16">K80-I80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M80" s="45"/>
       <c r="N80" s="89"/>
     </row>
     <row r="81" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B81" s="83"/>
-      <c r="C81" s="200"/>
+      <c r="C81" s="203"/>
       <c r="D81" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD02</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD01</v>
       </c>
       <c r="E81" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Contenção</v>
+        <f t="shared" si="14"/>
+        <v>Movimento de Terra / Terraplenagem</v>
       </c>
       <c r="G81" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G81:G112" si="17">G26/$G$65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H81" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H81:H112" si="18">SUM(N81:BK81)</f>
         <v>0</v>
       </c>
       <c r="I81" s="114" t="e">
@@ -4380,953 +4381,956 @@
       </c>
       <c r="K81" s="147"/>
       <c r="L81" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N81" s="89"/>
     </row>
     <row r="82" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B82" s="83"/>
-      <c r="C82" s="200"/>
+      <c r="C82" s="203"/>
       <c r="D82" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD03</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD02</v>
       </c>
       <c r="E82" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Fundação Profunda</v>
+        <f t="shared" si="14"/>
+        <v>Contenção</v>
       </c>
       <c r="G82" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H82" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I82" s="114" t="e">
-        <f t="shared" ref="I82:I115" si="16">IF(G82=0,0,H82/G82)</f>
+        <f>IF(G82=0,0,H82/G82)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K82" s="147"/>
       <c r="L82" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N82" s="89"/>
     </row>
     <row r="83" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B83" s="83"/>
-      <c r="C83" s="200"/>
+      <c r="C83" s="203"/>
       <c r="D83" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD04</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD03</v>
       </c>
       <c r="E83" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Fundação Superficial</v>
+        <f t="shared" si="14"/>
+        <v>Fundação Profunda</v>
       </c>
       <c r="G83" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H83" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I83" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I83:I116" si="19">IF(G83=0,0,H83/G83)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K83" s="147"/>
       <c r="L83" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N83" s="89"/>
     </row>
     <row r="84" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B84" s="83"/>
-      <c r="C84" s="200"/>
+      <c r="C84" s="203"/>
       <c r="D84" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD05</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD04</v>
       </c>
       <c r="E84" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Estrutura</v>
+        <f t="shared" si="14"/>
+        <v>Fundação Superficial</v>
       </c>
       <c r="G84" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H84" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I84" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K84" s="147"/>
       <c r="L84" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N84" s="89"/>
     </row>
     <row r="85" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" s="83"/>
-      <c r="C85" s="200"/>
+      <c r="C85" s="203"/>
       <c r="D85" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD06</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD05</v>
       </c>
       <c r="E85" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Alvenaria</v>
+        <f t="shared" si="14"/>
+        <v>Estrutura</v>
       </c>
       <c r="G85" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H85" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I85" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K85" s="147"/>
       <c r="L85" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N85" s="89"/>
     </row>
     <row r="86" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="83"/>
-      <c r="C86" s="200"/>
+      <c r="C86" s="203"/>
       <c r="D86" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD07</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD06</v>
       </c>
       <c r="E86" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Louças e Metais</v>
+        <f t="shared" si="14"/>
+        <v>Alvenaria</v>
       </c>
       <c r="G86" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H86" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I86" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K86" s="147"/>
       <c r="L86" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N86" s="89"/>
     </row>
     <row r="87" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" s="83"/>
-      <c r="C87" s="200"/>
+      <c r="C87" s="203"/>
       <c r="D87" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD08</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD07</v>
       </c>
       <c r="E87" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Instalações</v>
+        <f t="shared" si="14"/>
+        <v>Louças e Metais</v>
       </c>
       <c r="G87" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H87" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I87" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K87" s="147"/>
       <c r="L87" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N87" s="89"/>
     </row>
     <row r="88" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B88" s="83"/>
-      <c r="C88" s="200"/>
+      <c r="C88" s="203"/>
       <c r="D88" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD09</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD08</v>
       </c>
       <c r="E88" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Elevadores</v>
+        <f t="shared" si="14"/>
+        <v>Instalações</v>
       </c>
       <c r="G88" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H88" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I88" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K88" s="147"/>
       <c r="L88" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N88" s="89"/>
     </row>
     <row r="89" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B89" s="83"/>
-      <c r="C89" s="200"/>
+      <c r="C89" s="203"/>
       <c r="D89" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD10</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD09</v>
       </c>
       <c r="E89" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Esquadrias de Madeira</v>
+        <f t="shared" si="14"/>
+        <v>Elevadores</v>
       </c>
       <c r="G89" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H89" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I89" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K89" s="147"/>
       <c r="L89" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N89" s="89"/>
     </row>
     <row r="90" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B90" s="83"/>
-      <c r="C90" s="200"/>
+      <c r="C90" s="203"/>
       <c r="D90" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD11</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD10</v>
       </c>
       <c r="E90" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Esquadrias de Alumínio e Inox</v>
+        <f t="shared" si="14"/>
+        <v>Esquadrias de Madeira</v>
       </c>
       <c r="G90" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H90" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I90" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K90" s="147"/>
       <c r="L90" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N90" s="89"/>
     </row>
     <row r="91" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="83"/>
-      <c r="C91" s="200"/>
+      <c r="C91" s="203"/>
       <c r="D91" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD12</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD11</v>
       </c>
       <c r="E91" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Esquadrias de Vidro</v>
+        <f t="shared" si="14"/>
+        <v>Esquadrias de Alumínio e Inox</v>
       </c>
       <c r="G91" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H91" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I91" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K91" s="147"/>
       <c r="L91" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N91" s="89"/>
     </row>
     <row r="92" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="83"/>
-      <c r="C92" s="200"/>
+      <c r="C92" s="203"/>
       <c r="D92" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD13</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD12</v>
       </c>
       <c r="E92" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Esquadrias de Ferro</v>
+        <f t="shared" si="14"/>
+        <v>Esquadrias de Vidro</v>
       </c>
       <c r="G92" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H92" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I92" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K92" s="147"/>
       <c r="L92" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N92" s="89"/>
     </row>
     <row r="93" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="83"/>
-      <c r="C93" s="200"/>
+      <c r="C93" s="203"/>
       <c r="D93" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD14</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD13</v>
       </c>
       <c r="E93" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Revestimento Interno</v>
+        <f t="shared" si="14"/>
+        <v>Esquadrias de Ferro</v>
       </c>
       <c r="G93" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H93" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I93" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K93" s="147"/>
       <c r="L93" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N93" s="89"/>
     </row>
     <row r="94" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B94" s="83"/>
-      <c r="C94" s="200"/>
+      <c r="C94" s="203"/>
       <c r="D94" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD15</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD14</v>
       </c>
       <c r="E94" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Acabamento Interno</v>
+        <f t="shared" si="14"/>
+        <v>Revestimento Interno</v>
       </c>
       <c r="G94" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H94" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I94" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K94" s="147"/>
       <c r="L94" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N94" s="89"/>
     </row>
     <row r="95" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B95" s="83"/>
-      <c r="C95" s="200"/>
+      <c r="C95" s="203"/>
       <c r="D95" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD16</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD15</v>
       </c>
       <c r="E95" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Fachada</v>
+        <f t="shared" si="14"/>
+        <v>Acabamento Interno</v>
       </c>
       <c r="G95" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H95" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I95" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K95" s="147"/>
       <c r="L95" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N95" s="89"/>
     </row>
     <row r="96" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B96" s="83"/>
-      <c r="C96" s="200"/>
+      <c r="C96" s="203"/>
       <c r="D96" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD17</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD16</v>
       </c>
       <c r="E96" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Impermeabilizações / Coberturas</v>
+        <f t="shared" si="14"/>
+        <v>Fachada</v>
       </c>
       <c r="G96" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H96" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I96" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K96" s="147"/>
       <c r="L96" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N96" s="89"/>
     </row>
     <row r="97" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B97" s="83"/>
-      <c r="C97" s="200"/>
+      <c r="C97" s="203"/>
       <c r="D97" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD18</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD17</v>
       </c>
       <c r="E97" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Pintura</v>
+        <f t="shared" si="14"/>
+        <v>Impermeabilizações / Coberturas</v>
       </c>
       <c r="G97" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H97" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I97" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K97" s="147"/>
       <c r="L97" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N97" s="89"/>
     </row>
     <row r="98" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B98" s="83"/>
-      <c r="C98" s="200"/>
+      <c r="C98" s="203"/>
       <c r="D98" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD19</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD18</v>
       </c>
       <c r="E98" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Acessórios</v>
+        <f t="shared" si="14"/>
+        <v>Pintura</v>
       </c>
       <c r="G98" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H98" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I98" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K98" s="147"/>
       <c r="L98" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N98" s="89"/>
     </row>
     <row r="99" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B99" s="83"/>
-      <c r="C99" s="200"/>
+      <c r="C99" s="203"/>
       <c r="D99" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD20</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD19</v>
       </c>
       <c r="E99" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Jardim</v>
+        <f t="shared" si="14"/>
+        <v>Acessórios</v>
       </c>
       <c r="G99" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H99" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I99" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K99" s="147"/>
       <c r="L99" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N99" s="89"/>
     </row>
     <row r="100" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B100" s="83"/>
-      <c r="C100" s="200"/>
+      <c r="C100" s="203"/>
       <c r="D100" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD21</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD20</v>
       </c>
       <c r="E100" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Limpeza</v>
+        <f t="shared" si="14"/>
+        <v>Jardim</v>
       </c>
       <c r="G100" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H100" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I100" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K100" s="147"/>
       <c r="L100" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N100" s="89"/>
     </row>
     <row r="101" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B101" s="83"/>
-      <c r="C101" s="200"/>
+      <c r="C101" s="203"/>
       <c r="D101" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD22</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD21</v>
       </c>
       <c r="E101" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v>Redes</v>
+        <f t="shared" si="14"/>
+        <v>Limpeza</v>
       </c>
       <c r="G101" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H101" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I101" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K101" s="147"/>
       <c r="L101" s="148" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N101" s="89"/>
     </row>
     <row r="102" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" s="83"/>
-      <c r="C102" s="200"/>
+      <c r="C102" s="203"/>
       <c r="D102" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD23</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD22</v>
       </c>
       <c r="E102" s="185" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>Redes</v>
       </c>
       <c r="G102" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H102" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I102" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K102" s="147"/>
       <c r="L102" s="148" t="e">
-        <f>K102-I102</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N102" s="89"/>
     </row>
     <row r="103" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B103" s="83"/>
-      <c r="C103" s="200"/>
+      <c r="C103" s="203"/>
       <c r="D103" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD24</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD23</v>
       </c>
       <c r="E103" s="185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G103" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H103" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I103" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K103" s="147"/>
       <c r="L103" s="148" t="e">
-        <f t="shared" ref="L103:L109" si="17">K103-I103</f>
+        <f>K103-I103</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N103" s="89"/>
     </row>
     <row r="104" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B104" s="83"/>
-      <c r="C104" s="200"/>
+      <c r="C104" s="203"/>
       <c r="D104" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD25</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD24</v>
       </c>
       <c r="E104" s="185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G104" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H104" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I104" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K104" s="147"/>
       <c r="L104" s="148" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="L104:L110" si="20">K104-I104</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N104" s="89"/>
     </row>
     <row r="105" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B105" s="83"/>
-      <c r="C105" s="200"/>
+      <c r="C105" s="203"/>
       <c r="D105" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD26</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD25</v>
       </c>
       <c r="E105" s="185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G105" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H105" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I105" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K105" s="147"/>
       <c r="L105" s="148" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N105" s="89"/>
     </row>
     <row r="106" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B106" s="83"/>
-      <c r="C106" s="200"/>
+      <c r="C106" s="203"/>
       <c r="D106" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD27</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD26</v>
       </c>
       <c r="E106" s="185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G106" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H106" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I106" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K106" s="147"/>
       <c r="L106" s="148" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N106" s="89"/>
     </row>
     <row r="107" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B107" s="83"/>
-      <c r="C107" s="200"/>
+      <c r="C107" s="203"/>
       <c r="D107" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD28</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD27</v>
       </c>
       <c r="E107" s="185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G107" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H107" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I107" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K107" s="147"/>
       <c r="L107" s="148" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N107" s="89"/>
     </row>
     <row r="108" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B108" s="83"/>
-      <c r="C108" s="200"/>
+      <c r="C108" s="203"/>
       <c r="D108" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD29</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD28</v>
       </c>
       <c r="E108" s="185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G108" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H108" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I108" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K108" s="147"/>
       <c r="L108" s="148" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N108" s="89"/>
     </row>
     <row r="109" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B109" s="83"/>
-      <c r="C109" s="200"/>
+      <c r="C109" s="203"/>
       <c r="D109" s="184" t="str">
-        <f t="shared" si="6"/>
-        <v>POCRCD30</v>
+        <f t="shared" si="13"/>
+        <v>POCRCD29</v>
       </c>
       <c r="E109" s="185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G109" s="112" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H109" s="113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I109" s="114" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K109" s="147"/>
       <c r="L109" s="148" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N109" s="89"/>
+    </row>
+    <row r="110" spans="2:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B110" s="83"/>
+      <c r="C110" s="203"/>
+      <c r="D110" s="184" t="str">
+        <f t="shared" si="13"/>
+        <v>POCRCD30</v>
+      </c>
+      <c r="E110" s="185" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="G110" s="112" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N109" s="89"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="83"/>
-      <c r="C110" s="200"/>
-      <c r="D110" s="178" t="str">
-        <f t="shared" si="6"/>
-        <v>AD</v>
-      </c>
-      <c r="E110" s="179" t="str">
-        <f t="shared" si="7"/>
-        <v>Adiantamento</v>
-      </c>
-      <c r="G110" s="106" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H110" s="107">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="108" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K110" s="118"/>
-      <c r="L110" s="119"/>
+      <c r="H110" s="113">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="114" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K110" s="147"/>
+      <c r="L110" s="148" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N110" s="89"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="83"/>
-      <c r="C111" s="200"/>
+      <c r="C111" s="203"/>
       <c r="D111" s="178" t="str">
-        <f t="shared" si="6"/>
-        <v>PONI</v>
+        <f t="shared" si="13"/>
+        <v>AD</v>
       </c>
       <c r="E111" s="179" t="str">
-        <f t="shared" si="7"/>
-        <v>Licenciamentos / Não Incidentes</v>
+        <f t="shared" si="14"/>
+        <v>Adiantamento</v>
       </c>
       <c r="G111" s="106" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H111" s="107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I111" s="108" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K111" s="118"/>
       <c r="L111" s="119"/>
       <c r="N111" s="89"/>
     </row>
-    <row r="112" spans="2:14" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="83"/>
-      <c r="C112" s="200"/>
+      <c r="C112" s="203"/>
       <c r="D112" s="178" t="str">
-        <f t="shared" si="6"/>
-        <v>POPZ</v>
+        <f t="shared" si="13"/>
+        <v>PONI</v>
       </c>
       <c r="E112" s="179" t="str">
-        <f t="shared" si="7"/>
-        <v>Personalizações</v>
+        <f t="shared" si="14"/>
+        <v>Licenciamentos / Não Incidentes</v>
       </c>
       <c r="G112" s="106" t="e">
-        <f>SUM(G113:G115)</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H112" s="107">
-        <f>SUM(H113:H115)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I112" s="108" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K112" s="118"/>
       <c r="L112" s="119"/>
       <c r="N112" s="89"/>
     </row>
-    <row r="113" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B113" s="83"/>
-      <c r="C113" s="200"/>
-      <c r="D113" s="180" t="str">
-        <f t="shared" si="6"/>
-        <v>POPZKT</v>
-      </c>
-      <c r="E113" s="181" t="str">
-        <f t="shared" si="7"/>
-        <v>Kits</v>
-      </c>
-      <c r="G113" s="109" t="e">
-        <f t="shared" ref="G113:G115" si="18">G58/$G$64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H113" s="110">
-        <f t="shared" ref="H113:H115" si="19">SUM(N113:BK113)</f>
-        <v>0</v>
-      </c>
-      <c r="I113" s="111" t="e">
-        <f t="shared" si="16"/>
+      <c r="C113" s="203"/>
+      <c r="D113" s="178" t="str">
+        <f t="shared" si="13"/>
+        <v>POPZ</v>
+      </c>
+      <c r="E113" s="179" t="str">
+        <f t="shared" si="14"/>
+        <v>Personalizações</v>
+      </c>
+      <c r="G113" s="106" t="e">
+        <f>SUM(G114:G116)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H113" s="107">
+        <f>SUM(H114:H116)</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="108" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K113" s="118"/>
@@ -5335,154 +5339,181 @@
     </row>
     <row r="114" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B114" s="83"/>
-      <c r="C114" s="200"/>
+      <c r="C114" s="203"/>
       <c r="D114" s="180" t="str">
-        <f t="shared" si="6"/>
-        <v>POPZOP</v>
+        <f t="shared" si="13"/>
+        <v>POPZKT</v>
       </c>
       <c r="E114" s="181" t="str">
-        <f t="shared" si="7"/>
-        <v>Opções de Planta</v>
+        <f t="shared" si="14"/>
+        <v>Kits</v>
       </c>
       <c r="G114" s="109" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="G114:G116" si="21">G59/$G$65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H114" s="110">
+        <f t="shared" ref="H114:H116" si="22">SUM(N114:BK114)</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="111" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I114" s="111" t="e">
-        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K114" s="118"/>
       <c r="L114" s="119"/>
       <c r="N114" s="89"/>
     </row>
-    <row r="115" spans="2:14" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B115" s="83"/>
-      <c r="C115" s="201"/>
-      <c r="D115" s="182" t="str">
-        <f t="shared" si="6"/>
+      <c r="C115" s="203"/>
+      <c r="D115" s="180" t="str">
+        <f t="shared" si="13"/>
+        <v>POPZOP</v>
+      </c>
+      <c r="E115" s="181" t="str">
+        <f t="shared" si="14"/>
+        <v>Opções de Planta</v>
+      </c>
+      <c r="G115" s="109" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H115" s="110">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="111" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K115" s="118"/>
+      <c r="L115" s="119"/>
+      <c r="N115" s="89"/>
+    </row>
+    <row r="116" spans="2:14" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="83"/>
+      <c r="C116" s="204"/>
+      <c r="D116" s="182" t="str">
+        <f t="shared" si="13"/>
         <v>POPZMD</v>
       </c>
-      <c r="E115" s="183" t="str">
-        <f t="shared" si="7"/>
+      <c r="E116" s="183" t="str">
+        <f t="shared" si="14"/>
         <v>Modificações</v>
       </c>
-      <c r="G115" s="186" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H115" s="187">
+      <c r="G116" s="186" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H116" s="187">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="188" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="188" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K115" s="120"/>
-      <c r="L115" s="121"/>
-      <c r="N115" s="89"/>
-    </row>
-    <row r="116" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="122"/>
-      <c r="C116" s="123"/>
-      <c r="D116" s="123"/>
-      <c r="E116" s="123"/>
-      <c r="F116" s="123"/>
-      <c r="G116" s="124"/>
-      <c r="H116" s="123"/>
-      <c r="I116" s="123"/>
-      <c r="J116" s="123"/>
-      <c r="K116" s="123"/>
-      <c r="L116" s="123"/>
-      <c r="M116" s="123"/>
-      <c r="N116" s="126"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K116" s="120"/>
+      <c r="L116" s="121"/>
+      <c r="N116" s="89"/>
+    </row>
+    <row r="117" spans="2:14" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="122"/>
+      <c r="C117" s="123"/>
+      <c r="D117" s="123"/>
+      <c r="E117" s="123"/>
+      <c r="F117" s="123"/>
+      <c r="G117" s="124"/>
+      <c r="H117" s="123"/>
+      <c r="I117" s="123"/>
+      <c r="J117" s="123"/>
+      <c r="K117" s="123"/>
+      <c r="L117" s="123"/>
+      <c r="M117" s="123"/>
+      <c r="N117" s="126"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="4">
-    <mergeCell ref="C10:C59"/>
-    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C10:C60"/>
     <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C66:C115"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:C116"/>
   </mergeCells>
-  <conditionalFormatting sqref="D11:E14 D54:E56">
+  <conditionalFormatting sqref="D11:E14 D55:E57">
     <cfRule type="expression" dxfId="30" priority="42">
       <formula>$H11&gt;$G11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E22 D24:E53">
+  <conditionalFormatting sqref="D16:E23 D25:E54">
     <cfRule type="expression" dxfId="29" priority="41">
       <formula>$H16&gt;$G16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:E59">
+  <conditionalFormatting sqref="D58:E60">
     <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$H57&gt;$G57</formula>
+      <formula>$H58&gt;$G58</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67:E70">
+  <conditionalFormatting sqref="D68:E71">
     <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$H67&gt;$G67</formula>
+      <formula>$H68&gt;$G68</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72:E78">
+  <conditionalFormatting sqref="D73:E79">
     <cfRule type="expression" dxfId="26" priority="24">
-      <formula>$H72&gt;$G72</formula>
+      <formula>$H73&gt;$G73</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80:E109">
+  <conditionalFormatting sqref="D81:E110">
     <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$H80&gt;$G80</formula>
+      <formula>$H81&gt;$G81</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D110:E112">
+  <conditionalFormatting sqref="D111:E113">
     <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$H110&gt;$G110</formula>
+      <formula>$H111&gt;$G111</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:I15 D23:I23">
+  <conditionalFormatting sqref="D15:I15 D24:I24">
     <cfRule type="expression" dxfId="23" priority="7">
       <formula>$H15&gt;$G15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71 F79">
+  <conditionalFormatting sqref="F72 F80">
     <cfRule type="expression" dxfId="22" priority="29">
-      <formula>$H71&gt;$G71</formula>
+      <formula>$H72&gt;$G72</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:I14 G54:I59">
+  <conditionalFormatting sqref="G11:I14 G55:I60">
     <cfRule type="expression" dxfId="21" priority="6">
       <formula>$H11&gt;$G11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I22 G24:I53">
+  <conditionalFormatting sqref="G16:I23 G25:I54">
     <cfRule type="expression" dxfId="20" priority="5">
       <formula>$H16&gt;$G16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67:I70">
+  <conditionalFormatting sqref="G68:I71">
     <cfRule type="expression" dxfId="19" priority="1">
-      <formula>$H67&gt;$G67</formula>
+      <formula>$H68&gt;$G68</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:I78">
+  <conditionalFormatting sqref="G73:I79">
     <cfRule type="expression" dxfId="18" priority="4">
-      <formula>$H72&gt;$G72</formula>
+      <formula>$H73&gt;$G73</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:I109">
+  <conditionalFormatting sqref="G81:I110">
     <cfRule type="expression" dxfId="17" priority="3">
-      <formula>$H80&gt;$G80</formula>
+      <formula>$H81&gt;$G81</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110:I112">
+  <conditionalFormatting sqref="G111:I113">
     <cfRule type="expression" dxfId="16" priority="2">
-      <formula>$H110&gt;$G110</formula>
+      <formula>$H111&gt;$G111</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
@@ -5493,7 +5524,7 @@
       <formula>$L14&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15 L23">
+  <conditionalFormatting sqref="L15 L24">
     <cfRule type="expression" dxfId="13" priority="39">
       <formula>$L15&gt;0</formula>
     </cfRule>
@@ -5501,7 +5532,7 @@
       <formula>$L15&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L22 L24:L53">
+  <conditionalFormatting sqref="L16:L23 L25:L54">
     <cfRule type="expression" dxfId="11" priority="40">
       <formula>$L16&gt;0</formula>
     </cfRule>
@@ -5509,44 +5540,44 @@
       <formula>$L16&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70">
+  <conditionalFormatting sqref="L71">
     <cfRule type="expression" dxfId="9" priority="18">
-      <formula>$L70&lt;0</formula>
+      <formula>$L71&lt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="17">
-      <formula>$L70&gt;0</formula>
+      <formula>$L71&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L71">
+  <conditionalFormatting sqref="L72">
     <cfRule type="expression" dxfId="7" priority="12">
-      <formula>$L71&gt;0</formula>
+      <formula>$L72&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="11">
-      <formula>$L71&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L72:L78">
-    <cfRule type="expression" dxfId="5" priority="28">
-      <formula>$L72&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="30">
       <formula>$L72&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L79">
+  <conditionalFormatting sqref="L73:L79">
+    <cfRule type="expression" dxfId="5" priority="28">
+      <formula>$L73&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="30">
+      <formula>$L73&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L80">
     <cfRule type="expression" dxfId="3" priority="9">
-      <formula>$L79&gt;0</formula>
+      <formula>$L80&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="8">
-      <formula>$L79&lt;0</formula>
+      <formula>$L80&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L80:L109">
+  <conditionalFormatting sqref="L81:L110">
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>$L80&lt;0</formula>
+      <formula>$L81&lt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="14">
-      <formula>$L80&gt;0</formula>
+      <formula>$L81&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5571,7 +5602,7 @@
               <x14:cfIcon iconSet="3Triangles" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L63:L65 L10:L59</xm:sqref>
+          <xm:sqref>L64:L66 L10:L60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="31" id="{6617545D-A378-4210-AF36-A1187B99F577}">
@@ -5590,7 +5621,7 @@
               <x14:cfIcon iconSet="3Triangles" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L66:L69 L72:L78 L110:L115</xm:sqref>
+          <xm:sqref>L67:L70 L73:L79 L111:L116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="19" id="{B14ECBB5-0C25-4EE3-B1B4-8F1D1158B623}">
@@ -5609,7 +5640,7 @@
               <x14:cfIcon iconSet="3Triangles" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L70</xm:sqref>
+          <xm:sqref>L71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="13" id="{7D9E2E0E-36E0-49B1-A5E2-304ACC92622C}">
@@ -5628,7 +5659,7 @@
               <x14:cfIcon iconSet="3Triangles" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L71</xm:sqref>
+          <xm:sqref>L72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="10" id="{B8A03868-E041-4C1B-BD4E-4C838F1718CB}">
@@ -5647,7 +5678,7 @@
               <x14:cfIcon iconSet="3Triangles" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L79</xm:sqref>
+          <xm:sqref>L80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="16" id="{28810577-383D-40B0-8C07-09DEBDADC39D}">
@@ -5666,7 +5697,7 @@
               <x14:cfIcon iconSet="3Triangles" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L80:L109</xm:sqref>
+          <xm:sqref>L81:L110</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5676,10 +5707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6300C61-CD6D-4D93-9120-2A47E33C285E}">
-  <dimension ref="A3:A116"/>
+  <dimension ref="A3:A117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A1:A1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5708,7 +5739,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
-        <f>A11+A12+A13+A14+A54+A55+A56</f>
+        <f>A11+A12+A13+A14+A55+A56+A57</f>
         <v>0</v>
       </c>
     </row>
@@ -5723,7 +5754,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
-        <f>A15+A23</f>
+        <f>A15+A24</f>
         <v>0</v>
       </c>
     </row>
@@ -5755,13 +5786,13 @@
       <c r="A22" s="174"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
-        <f>SUM(A24:A53)</f>
-        <v>0</v>
-      </c>
+      <c r="A23" s="174"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="174"/>
+      <c r="A24" s="49">
+        <f>SUM(A25:A54)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="174"/>
@@ -5851,342 +5882,345 @@
       <c r="A53" s="174"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="173"/>
+      <c r="A54" s="174"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="173"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="67">
-        <f>SUM(A57:A59)</f>
-        <v>0</v>
-      </c>
+      <c r="A56" s="173"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="175"/>
+      <c r="A57" s="67">
+        <f>SUM(A58:A60)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="175"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="176"/>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="175"/>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="75"/>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="81"/>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="88"/>
-    </row>
-    <row r="64" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="91"/>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="97">
-        <f>A67+A68+A69+A70+A110+A111+A112</f>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="A60" s="176"/>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="75"/>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="81"/>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="88"/>
+    </row>
+    <row r="65" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="91"/>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="106">
-        <f>IF(A$64=0,0,A11/A$64)</f>
+      <c r="A67" s="97">
+        <f>A68+A69+A70+A71+A111+A112+A113</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="106">
-        <f t="shared" ref="A68:A69" si="0">IF(A$64=0,0,A12/A$64)</f>
+        <f>IF(A$65=0,0,A11/A$65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="106">
-        <f t="shared" si="0"/>
+        <f>IF(A$65=0,0,A12/A$65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="106">
-        <f>A71+A79</f>
+        <f>IF(A$65=0,0,A13/A$65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="109">
-        <f>SUM(A72:A78)</f>
+      <c r="A71" s="106">
+        <f>A72+A80</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="117">
-        <f>IF(A$64=0,0,A16/A$64)</f>
+      <c r="A72" s="109">
+        <f>SUM(A73:A79)</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="117">
-        <f>IF(A$64=0,0,A17/A$64)</f>
+        <f t="shared" ref="A73:A79" si="0">IF(A$65=0,0,A16/A$65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="117">
-        <f>IF(A$64=0,0,A18/A$64)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="117">
-        <f>IF(A$64=0,0,A19/A$64)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="117">
-        <f t="shared" ref="A76:A78" si="1">IF(A$64=0,0,A20/A$64)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="109">
-        <f>SUM(A80:A109)</f>
+      <c r="A79" s="117">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="117">
-        <f t="shared" ref="A80:A111" si="2">IF(A$64=0,0,A24/A$64)</f>
+      <c r="A80" s="109">
+        <f>SUM(A81:A110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A81:A112" si="1">IF(A$65=0,0,A25/A$65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="106">
-        <f t="shared" si="2"/>
+      <c r="A110" s="117">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="106">
-        <f>SUM(A113:A115)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="109">
-        <f t="shared" ref="A113:A115" si="3">IF(A$64=0,0,A57/A$64)</f>
+      <c r="A113" s="106">
+        <f>SUM(A114:A116)</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="109">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A114:A116" si="2">IF(A$65=0,0,A58/A$65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="109">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="125"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6194,6 +6228,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A2E69AC71DE3654F97F1183C29BC8261" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="882d357326e1215bae8de2ab4e60b4fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8366f177-07ed-4fc9-be97-e083a2cd3bf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf3bcc82be21379e317eddbad04fc935" ns2:_="">
     <xsd:import namespace="8366f177-07ed-4fc9-be97-e083a2cd3bf9"/>
@@ -6337,15 +6380,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6353,6 +6387,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54025C05-9DFC-48B1-AF42-8C333127B25E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6370,14 +6412,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
   <ds:schemaRefs>

--- a/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
+++ b/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Bot Fabricio\modelo planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E64AA5-7001-4DE7-8A91-B6FEA060EA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6DC0DD-8F49-4FAC-8DA2-6F318A3DC2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11235" yWindow="1395" windowWidth="23235" windowHeight="11760" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
+    <workbookView xWindow="-23040" yWindow="624" windowWidth="23232" windowHeight="11760" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="PEP A PEP" sheetId="2" r:id="rId1"/>
@@ -2485,10 +2485,10 @@
   <dimension ref="B1:N117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="7" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="7" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="G58" s="170"/>
       <c r="H58" s="164">
-        <f t="shared" ref="H58:H60" si="5">SUM(N58:BK58)</f>
+        <f>SUM(N58:XFD58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="165">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G59" s="170"/>
       <c r="H59" s="164">
-        <f t="shared" si="5"/>
+        <f>SUM(N59:XFD59)</f>
         <v>0</v>
       </c>
       <c r="I59" s="165">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="G60" s="171"/>
       <c r="H60" s="166">
-        <f t="shared" si="5"/>
+        <f>SUM(N60:XFD60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="167">
@@ -3931,11 +3931,11 @@
         <v>102</v>
       </c>
       <c r="D67" s="95" t="str">
-        <f t="shared" ref="D67:D79" si="6">D10</f>
+        <f t="shared" ref="D67:D79" si="5">D10</f>
         <v>PO</v>
       </c>
       <c r="E67" s="96" t="str">
-        <f t="shared" ref="E67:E79" si="7">IF(E10="","",E10)</f>
+        <f t="shared" ref="E67:E79" si="6">IF(E10="","",E10)</f>
         <v>Obra</v>
       </c>
       <c r="F67" s="9"/>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="99" t="e">
-        <f t="shared" ref="I67:I79" si="8">IF(G67=0,0,H67/G67)</f>
+        <f t="shared" ref="I67:I79" si="7">IF(G67=0,0,H67/G67)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J67" s="9"/>
@@ -3961,11 +3961,11 @@
       <c r="B68" s="94"/>
       <c r="C68" s="203"/>
       <c r="D68" s="178" t="str">
+        <f t="shared" si="5"/>
+        <v>POCI</v>
+      </c>
+      <c r="E68" s="179" t="str">
         <f t="shared" si="6"/>
-        <v>POCI</v>
-      </c>
-      <c r="E68" s="179" t="str">
-        <f t="shared" si="7"/>
         <v>Incorporação</v>
       </c>
       <c r="F68" s="9"/>
@@ -3974,11 +3974,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H68" s="104">
-        <f>SUM(N68:BK68)</f>
+        <f>SUM(N68:XFD68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="105" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J68" s="9"/>
@@ -3991,11 +3991,11 @@
       <c r="B69" s="94"/>
       <c r="C69" s="203"/>
       <c r="D69" s="178" t="str">
+        <f t="shared" si="5"/>
+        <v>POCD</v>
+      </c>
+      <c r="E69" s="179" t="str">
         <f t="shared" si="6"/>
-        <v>POCD</v>
-      </c>
-      <c r="E69" s="179" t="str">
-        <f t="shared" si="7"/>
         <v>Condicionantes / Licenciamentos</v>
       </c>
       <c r="F69" s="9"/>
@@ -4004,11 +4004,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H69" s="104">
-        <f t="shared" ref="H69:H70" si="9">SUM(N69:BK69)</f>
+        <f>SUM(N69:XFD69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="105" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J69" s="9"/>
@@ -4021,11 +4021,11 @@
       <c r="B70" s="94"/>
       <c r="C70" s="203"/>
       <c r="D70" s="178" t="str">
+        <f t="shared" si="5"/>
+        <v>POSP</v>
+      </c>
+      <c r="E70" s="179" t="str">
         <f t="shared" si="6"/>
-        <v>POSP</v>
-      </c>
-      <c r="E70" s="179" t="str">
-        <f t="shared" si="7"/>
         <v>Custos Administrativos Preliminares</v>
       </c>
       <c r="F70" s="9"/>
@@ -4034,11 +4034,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H70" s="104">
-        <f t="shared" si="9"/>
+        <f>SUM(N70:XFD70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="105" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J70" s="9"/>
@@ -4051,11 +4051,11 @@
       <c r="B71" s="83"/>
       <c r="C71" s="203"/>
       <c r="D71" s="178" t="str">
+        <f t="shared" si="5"/>
+        <v>POCR</v>
+      </c>
+      <c r="E71" s="179" t="str">
         <f t="shared" si="6"/>
-        <v>POCR</v>
-      </c>
-      <c r="E71" s="179" t="str">
-        <f t="shared" si="7"/>
         <v>Custo Raso de Obra</v>
       </c>
       <c r="F71" s="43"/>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="105" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J71" s="45"/>
@@ -4084,11 +4084,11 @@
       <c r="B72" s="83"/>
       <c r="C72" s="203"/>
       <c r="D72" s="180" t="str">
+        <f t="shared" si="5"/>
+        <v>POCRCI</v>
+      </c>
+      <c r="E72" s="181" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCI</v>
-      </c>
-      <c r="E72" s="181" t="str">
-        <f t="shared" si="7"/>
         <v>Custo Indireto</v>
       </c>
       <c r="F72" s="45"/>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="I72" s="111" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J72" s="45"/>
       <c r="K72" s="146"/>
       <c r="L72" s="111" t="e">
-        <f t="shared" ref="L72" si="10">K72-I72</f>
+        <f t="shared" ref="L72" si="8">K72-I72</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M72" s="45"/>
@@ -4117,16 +4117,16 @@
       <c r="B73" s="83"/>
       <c r="C73" s="203"/>
       <c r="D73" s="184" t="str">
+        <f t="shared" si="5"/>
+        <v>POCRCIPJ</v>
+      </c>
+      <c r="E73" s="185" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCIPJ</v>
-      </c>
-      <c r="E73" s="185" t="str">
-        <f t="shared" si="7"/>
         <v>Projetos</v>
       </c>
       <c r="F73" s="45"/>
       <c r="G73" s="112" t="e">
-        <f t="shared" ref="G73:G78" si="11">G17/$G$65</f>
+        <f t="shared" ref="G73:G78" si="9">G17/$G$65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H73" s="113">
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="114" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J73" s="45"/>
@@ -4147,24 +4147,24 @@
       <c r="B74" s="83"/>
       <c r="C74" s="203"/>
       <c r="D74" s="184" t="str">
+        <f t="shared" si="5"/>
+        <v>POCRCISP</v>
+      </c>
+      <c r="E74" s="185" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCISP</v>
-      </c>
-      <c r="E74" s="185" t="str">
-        <f t="shared" si="7"/>
         <v>Serviços Preliminares Obra</v>
       </c>
       <c r="F74" s="45"/>
       <c r="G74" s="112" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H74" s="113">
-        <f t="shared" ref="H74:H79" si="12">SUM(N74:BK74)</f>
+        <f t="shared" ref="H74:H79" si="10">SUM(N74:BK74)</f>
         <v>0</v>
       </c>
       <c r="I74" s="114" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J74" s="45"/>
@@ -4177,24 +4177,24 @@
       <c r="B75" s="83"/>
       <c r="C75" s="203"/>
       <c r="D75" s="184" t="str">
+        <f t="shared" si="5"/>
+        <v>POCRCIIP</v>
+      </c>
+      <c r="E75" s="185" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCIIP</v>
-      </c>
-      <c r="E75" s="185" t="str">
-        <f t="shared" si="7"/>
         <v>Instalações Provisórias</v>
       </c>
       <c r="F75" s="45"/>
       <c r="G75" s="112" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H75" s="113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I75" s="114" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J75" s="45"/>
@@ -4207,24 +4207,24 @@
       <c r="B76" s="83"/>
       <c r="C76" s="203"/>
       <c r="D76" s="184" t="str">
+        <f t="shared" si="5"/>
+        <v>POCRCIPR</v>
+      </c>
+      <c r="E76" s="185" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCIPR</v>
-      </c>
-      <c r="E76" s="185" t="str">
-        <f t="shared" si="7"/>
         <v>Sistema de Proteção</v>
       </c>
       <c r="F76" s="45"/>
       <c r="G76" s="112" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H76" s="113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I76" s="114" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J76" s="45"/>
@@ -4237,24 +4237,24 @@
       <c r="B77" s="83"/>
       <c r="C77" s="203"/>
       <c r="D77" s="184" t="str">
+        <f t="shared" si="5"/>
+        <v>POCRCIEQ</v>
+      </c>
+      <c r="E77" s="185" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCIEQ</v>
-      </c>
-      <c r="E77" s="185" t="str">
-        <f t="shared" si="7"/>
         <v>Equipamentos</v>
       </c>
       <c r="F77" s="45"/>
       <c r="G77" s="112" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H77" s="113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I77" s="114" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J77" s="45"/>
@@ -4267,24 +4267,24 @@
       <c r="B78" s="83"/>
       <c r="C78" s="203"/>
       <c r="D78" s="184" t="str">
+        <f t="shared" si="5"/>
+        <v>POCRCIMO</v>
+      </c>
+      <c r="E78" s="185" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCIMO</v>
-      </c>
-      <c r="E78" s="185" t="str">
-        <f t="shared" si="7"/>
         <v>Mão de Obra</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="112" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H78" s="113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I78" s="114" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J78" s="45"/>
@@ -4297,11 +4297,11 @@
       <c r="B79" s="83"/>
       <c r="C79" s="203"/>
       <c r="D79" s="184" t="str">
+        <f t="shared" si="5"/>
+        <v>POCRCICO</v>
+      </c>
+      <c r="E79" s="185" t="str">
         <f t="shared" si="6"/>
-        <v>POCRCICO</v>
-      </c>
-      <c r="E79" s="185" t="str">
-        <f t="shared" si="7"/>
         <v>Consumos</v>
       </c>
       <c r="F79" s="45"/>
@@ -4310,11 +4310,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H79" s="113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I79" s="114" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J79" s="45"/>
@@ -4327,11 +4327,11 @@
       <c r="B80" s="83"/>
       <c r="C80" s="203"/>
       <c r="D80" s="180" t="str">
-        <f t="shared" ref="D80:D116" si="13">D24</f>
+        <f t="shared" ref="D80:D116" si="11">D24</f>
         <v>POCRCD</v>
       </c>
       <c r="E80" s="181" t="str">
-        <f t="shared" ref="E80:E116" si="14">IF(E24="","",E24)</f>
+        <f t="shared" ref="E80:E116" si="12">IF(E24="","",E24)</f>
         <v>Custo Direto</v>
       </c>
       <c r="F80" s="45"/>
@@ -4344,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="I80" s="111" t="e">
-        <f t="shared" ref="I80" si="15">IF(G80=0,0,H80/G80)</f>
+        <f t="shared" ref="I80" si="13">IF(G80=0,0,H80/G80)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J80" s="45"/>
       <c r="K80" s="189"/>
       <c r="L80" s="111" t="e">
-        <f t="shared" ref="L80:L102" si="16">K80-I80</f>
+        <f t="shared" ref="L80:L102" si="14">K80-I80</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M80" s="45"/>
@@ -4360,19 +4360,19 @@
       <c r="B81" s="83"/>
       <c r="C81" s="203"/>
       <c r="D81" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD01</v>
       </c>
       <c r="E81" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Movimento de Terra / Terraplenagem</v>
       </c>
       <c r="G81" s="112" t="e">
-        <f t="shared" ref="G81:G112" si="17">G26/$G$65</f>
+        <f t="shared" ref="G81:G112" si="15">G26/$G$65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H81" s="113">
-        <f t="shared" ref="H81:H112" si="18">SUM(N81:BK81)</f>
+        <f t="shared" ref="H81:H112" si="16">SUM(N81:BK81)</f>
         <v>0</v>
       </c>
       <c r="I81" s="114" t="e">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="K81" s="147"/>
       <c r="L81" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N81" s="89"/>
@@ -4390,19 +4390,19 @@
       <c r="B82" s="83"/>
       <c r="C82" s="203"/>
       <c r="D82" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD02</v>
       </c>
       <c r="E82" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Contenção</v>
       </c>
       <c r="G82" s="112" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H82" s="113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I82" s="114" t="e">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="K82" s="147"/>
       <c r="L82" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N82" s="89"/>
@@ -4420,28 +4420,28 @@
       <c r="B83" s="83"/>
       <c r="C83" s="203"/>
       <c r="D83" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD03</v>
       </c>
       <c r="E83" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Fundação Profunda</v>
       </c>
       <c r="G83" s="112" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H83" s="113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I83" s="114" t="e">
-        <f t="shared" ref="I83:I116" si="19">IF(G83=0,0,H83/G83)</f>
+        <f t="shared" ref="I83:I116" si="17">IF(G83=0,0,H83/G83)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K83" s="147"/>
       <c r="L83" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N83" s="89"/>
@@ -4450,28 +4450,28 @@
       <c r="B84" s="83"/>
       <c r="C84" s="203"/>
       <c r="D84" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD04</v>
       </c>
       <c r="E84" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Fundação Superficial</v>
       </c>
       <c r="G84" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H84" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H84" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K84" s="147"/>
       <c r="L84" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N84" s="89"/>
@@ -4480,28 +4480,28 @@
       <c r="B85" s="83"/>
       <c r="C85" s="203"/>
       <c r="D85" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD05</v>
       </c>
       <c r="E85" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Estrutura</v>
       </c>
       <c r="G85" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H85" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K85" s="147"/>
       <c r="L85" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N85" s="89"/>
@@ -4510,28 +4510,28 @@
       <c r="B86" s="83"/>
       <c r="C86" s="203"/>
       <c r="D86" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD06</v>
       </c>
       <c r="E86" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Alvenaria</v>
       </c>
       <c r="G86" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H86" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K86" s="147"/>
       <c r="L86" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N86" s="89"/>
@@ -4540,28 +4540,28 @@
       <c r="B87" s="83"/>
       <c r="C87" s="203"/>
       <c r="D87" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD07</v>
       </c>
       <c r="E87" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Louças e Metais</v>
       </c>
       <c r="G87" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H87" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K87" s="147"/>
       <c r="L87" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N87" s="89"/>
@@ -4570,28 +4570,28 @@
       <c r="B88" s="83"/>
       <c r="C88" s="203"/>
       <c r="D88" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD08</v>
       </c>
       <c r="E88" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Instalações</v>
       </c>
       <c r="G88" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K88" s="147"/>
       <c r="L88" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N88" s="89"/>
@@ -4600,28 +4600,28 @@
       <c r="B89" s="83"/>
       <c r="C89" s="203"/>
       <c r="D89" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD09</v>
       </c>
       <c r="E89" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Elevadores</v>
       </c>
       <c r="G89" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K89" s="147"/>
       <c r="L89" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N89" s="89"/>
@@ -4630,28 +4630,28 @@
       <c r="B90" s="83"/>
       <c r="C90" s="203"/>
       <c r="D90" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD10</v>
       </c>
       <c r="E90" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Esquadrias de Madeira</v>
       </c>
       <c r="G90" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H90" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K90" s="147"/>
       <c r="L90" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N90" s="89"/>
@@ -4660,28 +4660,28 @@
       <c r="B91" s="83"/>
       <c r="C91" s="203"/>
       <c r="D91" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD11</v>
       </c>
       <c r="E91" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Esquadrias de Alumínio e Inox</v>
       </c>
       <c r="G91" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H91" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H91" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K91" s="147"/>
       <c r="L91" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N91" s="89"/>
@@ -4690,28 +4690,28 @@
       <c r="B92" s="83"/>
       <c r="C92" s="203"/>
       <c r="D92" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD12</v>
       </c>
       <c r="E92" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Esquadrias de Vidro</v>
       </c>
       <c r="G92" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H92" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H92" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K92" s="147"/>
       <c r="L92" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N92" s="89"/>
@@ -4720,28 +4720,28 @@
       <c r="B93" s="83"/>
       <c r="C93" s="203"/>
       <c r="D93" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD13</v>
       </c>
       <c r="E93" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Esquadrias de Ferro</v>
       </c>
       <c r="G93" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H93" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H93" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K93" s="147"/>
       <c r="L93" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N93" s="89"/>
@@ -4750,28 +4750,28 @@
       <c r="B94" s="83"/>
       <c r="C94" s="203"/>
       <c r="D94" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD14</v>
       </c>
       <c r="E94" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Revestimento Interno</v>
       </c>
       <c r="G94" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H94" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H94" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K94" s="147"/>
       <c r="L94" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N94" s="89"/>
@@ -4780,28 +4780,28 @@
       <c r="B95" s="83"/>
       <c r="C95" s="203"/>
       <c r="D95" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD15</v>
       </c>
       <c r="E95" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Acabamento Interno</v>
       </c>
       <c r="G95" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H95" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H95" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K95" s="147"/>
       <c r="L95" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N95" s="89"/>
@@ -4810,28 +4810,28 @@
       <c r="B96" s="83"/>
       <c r="C96" s="203"/>
       <c r="D96" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD16</v>
       </c>
       <c r="E96" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Fachada</v>
       </c>
       <c r="G96" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H96" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H96" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K96" s="147"/>
       <c r="L96" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N96" s="89"/>
@@ -4840,28 +4840,28 @@
       <c r="B97" s="83"/>
       <c r="C97" s="203"/>
       <c r="D97" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD17</v>
       </c>
       <c r="E97" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Impermeabilizações / Coberturas</v>
       </c>
       <c r="G97" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H97" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K97" s="147"/>
       <c r="L97" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N97" s="89"/>
@@ -4870,28 +4870,28 @@
       <c r="B98" s="83"/>
       <c r="C98" s="203"/>
       <c r="D98" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD18</v>
       </c>
       <c r="E98" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Pintura</v>
       </c>
       <c r="G98" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H98" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H98" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K98" s="147"/>
       <c r="L98" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N98" s="89"/>
@@ -4900,28 +4900,28 @@
       <c r="B99" s="83"/>
       <c r="C99" s="203"/>
       <c r="D99" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD19</v>
       </c>
       <c r="E99" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Acessórios</v>
       </c>
       <c r="G99" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H99" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H99" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K99" s="147"/>
       <c r="L99" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N99" s="89"/>
@@ -4930,28 +4930,28 @@
       <c r="B100" s="83"/>
       <c r="C100" s="203"/>
       <c r="D100" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD20</v>
       </c>
       <c r="E100" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Jardim</v>
       </c>
       <c r="G100" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K100" s="147"/>
       <c r="L100" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N100" s="89"/>
@@ -4960,28 +4960,28 @@
       <c r="B101" s="83"/>
       <c r="C101" s="203"/>
       <c r="D101" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD21</v>
       </c>
       <c r="E101" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Limpeza</v>
       </c>
       <c r="G101" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H101" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H101" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K101" s="147"/>
       <c r="L101" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N101" s="89"/>
@@ -4990,28 +4990,28 @@
       <c r="B102" s="83"/>
       <c r="C102" s="203"/>
       <c r="D102" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD22</v>
       </c>
       <c r="E102" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Redes</v>
       </c>
       <c r="G102" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H102" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H102" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K102" s="147"/>
       <c r="L102" s="148" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N102" s="89"/>
@@ -5020,23 +5020,23 @@
       <c r="B103" s="83"/>
       <c r="C103" s="203"/>
       <c r="D103" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD23</v>
       </c>
       <c r="E103" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G103" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H103" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H103" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K103" s="147"/>
@@ -5050,28 +5050,28 @@
       <c r="B104" s="83"/>
       <c r="C104" s="203"/>
       <c r="D104" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD24</v>
       </c>
       <c r="E104" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G104" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H104" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H104" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I104" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K104" s="147"/>
       <c r="L104" s="148" t="e">
-        <f t="shared" ref="L104:L110" si="20">K104-I104</f>
+        <f t="shared" ref="L104:L110" si="18">K104-I104</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N104" s="89"/>
@@ -5080,28 +5080,28 @@
       <c r="B105" s="83"/>
       <c r="C105" s="203"/>
       <c r="D105" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD25</v>
       </c>
       <c r="E105" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G105" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H105" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H105" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K105" s="147"/>
       <c r="L105" s="148" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N105" s="89"/>
@@ -5110,28 +5110,28 @@
       <c r="B106" s="83"/>
       <c r="C106" s="203"/>
       <c r="D106" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD26</v>
       </c>
       <c r="E106" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G106" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K106" s="147"/>
       <c r="L106" s="148" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N106" s="89"/>
@@ -5140,28 +5140,28 @@
       <c r="B107" s="83"/>
       <c r="C107" s="203"/>
       <c r="D107" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD27</v>
       </c>
       <c r="E107" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G107" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H107" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H107" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K107" s="147"/>
       <c r="L107" s="148" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N107" s="89"/>
@@ -5170,28 +5170,28 @@
       <c r="B108" s="83"/>
       <c r="C108" s="203"/>
       <c r="D108" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD28</v>
       </c>
       <c r="E108" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G108" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H108" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H108" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K108" s="147"/>
       <c r="L108" s="148" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N108" s="89"/>
@@ -5200,28 +5200,28 @@
       <c r="B109" s="83"/>
       <c r="C109" s="203"/>
       <c r="D109" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD29</v>
       </c>
       <c r="E109" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G109" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H109" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H109" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K109" s="147"/>
       <c r="L109" s="148" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N109" s="89"/>
@@ -5230,28 +5230,28 @@
       <c r="B110" s="83"/>
       <c r="C110" s="203"/>
       <c r="D110" s="184" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POCRCD30</v>
       </c>
       <c r="E110" s="185" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G110" s="112" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H110" s="113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="114" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H110" s="113">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="114" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K110" s="147"/>
       <c r="L110" s="148" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N110" s="89"/>
@@ -5260,23 +5260,23 @@
       <c r="B111" s="83"/>
       <c r="C111" s="203"/>
       <c r="D111" s="178" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>AD</v>
       </c>
       <c r="E111" s="179" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Adiantamento</v>
       </c>
       <c r="G111" s="106" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H111" s="107">
+        <f>SUM(N111:XFD111)</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="108" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H111" s="107">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I111" s="108" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K111" s="118"/>
@@ -5287,23 +5287,23 @@
       <c r="B112" s="83"/>
       <c r="C112" s="203"/>
       <c r="D112" s="178" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>PONI</v>
       </c>
       <c r="E112" s="179" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Licenciamentos / Não Incidentes</v>
       </c>
       <c r="G112" s="106" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H112" s="107">
+        <f>SUM(N112:XFD112)</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="108" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H112" s="107">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I112" s="108" t="e">
-        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K112" s="118"/>
@@ -5314,11 +5314,11 @@
       <c r="B113" s="83"/>
       <c r="C113" s="203"/>
       <c r="D113" s="178" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POPZ</v>
       </c>
       <c r="E113" s="179" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Personalizações</v>
       </c>
       <c r="G113" s="106" t="e">
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="108" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K113" s="118"/>
@@ -5341,23 +5341,23 @@
       <c r="B114" s="83"/>
       <c r="C114" s="203"/>
       <c r="D114" s="180" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POPZKT</v>
       </c>
       <c r="E114" s="181" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Kits</v>
       </c>
       <c r="G114" s="109" t="e">
-        <f t="shared" ref="G114:G116" si="21">G59/$G$65</f>
+        <f t="shared" ref="G114:G116" si="19">G59/$G$65</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H114" s="110">
-        <f t="shared" ref="H114:H116" si="22">SUM(N114:BK114)</f>
+        <f t="shared" ref="H114:H116" si="20">SUM(N114:BK114)</f>
         <v>0</v>
       </c>
       <c r="I114" s="111" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K114" s="118"/>
@@ -5368,23 +5368,23 @@
       <c r="B115" s="83"/>
       <c r="C115" s="203"/>
       <c r="D115" s="180" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POPZOP</v>
       </c>
       <c r="E115" s="181" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Opções de Planta</v>
       </c>
       <c r="G115" s="109" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H115" s="110">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I115" s="111" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K115" s="118"/>
@@ -5395,23 +5395,23 @@
       <c r="B116" s="83"/>
       <c r="C116" s="204"/>
       <c r="D116" s="182" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>POPZMD</v>
       </c>
       <c r="E116" s="183" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Modificações</v>
       </c>
       <c r="G116" s="186" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H116" s="187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I116" s="188" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K116" s="120"/>
@@ -6228,12 +6228,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6381,15 +6378,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6413,10 +6414,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
+++ b/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Bot Fabricio\modelo planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6DC0DD-8F49-4FAC-8DA2-6F318A3DC2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A316064-A760-45D0-A1CA-D856619585D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="624" windowWidth="23232" windowHeight="11760" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
+    <workbookView xWindow="-23148" yWindow="-72" windowWidth="23256" windowHeight="12456" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="PEP A PEP" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Obra:</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>MOEDA FORTE</t>
-  </si>
-  <si>
-    <t>m023</t>
   </si>
   <si>
     <t>POCRCIPR</t>
@@ -2485,10 +2482,10 @@
   <dimension ref="B1:N117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="7" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="7" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2514,9 +2511,7 @@
       <c r="D2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="135" t="s">
-        <v>103</v>
-      </c>
+      <c r="E2" s="135"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="136"/>
@@ -2860,7 +2855,7 @@
       <c r="B19" s="42"/>
       <c r="C19" s="196"/>
       <c r="D19" s="157" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="159" t="s">
         <v>28</v>
@@ -2960,10 +2955,10 @@
       <c r="B23" s="42"/>
       <c r="C23" s="196"/>
       <c r="D23" s="157" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="159" t="s">
         <v>105</v>
-      </c>
-      <c r="E23" s="159" t="s">
-        <v>106</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="172"/>
@@ -4372,7 +4367,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H81" s="113">
-        <f t="shared" ref="H81:H112" si="16">SUM(N81:BK81)</f>
+        <f t="shared" ref="H81:H110" si="16">SUM(N81:BK81)</f>
         <v>0</v>
       </c>
       <c r="I81" s="114" t="e">
@@ -6228,9 +6223,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6378,19 +6376,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6414,9 +6408,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
+++ b/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Bot Fabricio\modelo planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A316064-A760-45D0-A1CA-D856619585D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD9B97-692B-4680-9DA9-D284E9C4ACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-72" windowWidth="23256" windowHeight="12456" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="PEP A PEP" sheetId="2" r:id="rId1"/>
@@ -2482,10 +2482,10 @@
   <dimension ref="B1:N117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="7" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="7" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="50">
-        <f>SUM(H16:H22)</f>
+        <f>SUM(H16:XFD16)</f>
         <v>0</v>
       </c>
       <c r="I15" s="51">
@@ -6223,12 +6223,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6376,15 +6373,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6408,10 +6409,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
+++ b/modelo planilha/PEP a PEP - Incorridos - Modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Bot Fabricio\modelo planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD9B97-692B-4680-9DA9-D284E9C4ACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D979581D-6440-4D3C-A274-4A0A14555262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
+    <workbookView xWindow="9585" yWindow="1770" windowWidth="27060" windowHeight="13215" xr2:uid="{FF0CDEF6-1121-4D75-9F35-6CA55A6AF6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="PEP A PEP" sheetId="2" r:id="rId1"/>
@@ -2482,10 +2482,10 @@
   <dimension ref="B1:N117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="12" ySplit="7" topLeftCell="M49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="7" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="50">
-        <f>SUM(H16:XFD16)</f>
+        <f>SUM(H16:H23)</f>
         <v>0</v>
       </c>
       <c r="I15" s="51">
@@ -6229,6 +6229,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A2E69AC71DE3654F97F1183C29BC8261" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="882d357326e1215bae8de2ab4e60b4fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8366f177-07ed-4fc9-be97-e083a2cd3bf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf3bcc82be21379e317eddbad04fc935" ns2:_="">
     <xsd:import namespace="8366f177-07ed-4fc9-be97-e083a2cd3bf9"/>
@@ -6372,15 +6381,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1858D4A7-903D-4677-86F9-0756F6A8ED4F}">
   <ds:schemaRefs>
@@ -6391,6 +6391,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54025C05-9DFC-48B1-AF42-8C333127B25E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6406,12 +6414,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B81410E7-B7C4-4318-85E7-620A47FED5F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>